--- a/tools/omelox-excel/template/sample_data.xlsx
+++ b/tools/omelox-excel/template/sample_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\develop\project\gamingcity\omelox-workspaces\tools\omelox-excel\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\develop\project\gamingcity\gamecity-server-omelox\shared\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170FDCBC-3C03-406C-8851-A1D9598448AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74FCD4E-022A-4807-BD79-0FC74B3B6474}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>config_type</t>
   </si>
   <si>
-    <t>model:模型；data：数据配置；const：常量配置；lang：语言配置</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -97,6 +94,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -107,6 +105,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -193,6 +192,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -203,6 +203,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>nt</t>
@@ -943,6 +944,10 @@
   </si>
   <si>
     <t>sample_data</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>model：模型；data：数据配置；const：常量配置；lang：语言配置;  error：错误码;</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -962,6 +967,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -969,12 +975,14 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -982,6 +990,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -989,6 +998,7 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -996,24 +1006,28 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1021,12 +1035,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1417,10 +1433,10 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1873,7 +1889,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1910,13 +1926,13 @@
     </row>
     <row r="4" spans="1:3" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="37">
+        <v>1</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>286</v>
-      </c>
-      <c r="B4" s="37">
-        <v>1</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1924,119 +1940,109 @@
         <v>6</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>7</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
@@ -2046,6 +2052,16 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2074,287 +2090,287 @@
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="R2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="U2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="7" t="s">
+      <c r="W2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="AD2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="AE2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="C3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="E3" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="F3" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="G3" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="H3" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="I3" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="J3" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="K3" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="L3" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="M3" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="N3" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="O3" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="P3" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="Q3" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="R3" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="S3" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="T3" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="U3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="29" t="s">
+      <c r="V3" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="V3" s="29" t="s">
+      <c r="W3" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="W3" s="29" t="s">
+      <c r="X3" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="X3" s="29" t="s">
+      <c r="Y3" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="Y3" s="29" t="s">
+      <c r="Z3" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="Z3" s="29" t="s">
+      <c r="AA3" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="AA3" s="29" t="s">
+      <c r="AB3" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="AB3" s="29" t="s">
+      <c r="AC3" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="AC3" s="29" t="s">
+      <c r="AD3" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AD3" s="29" t="s">
+      <c r="AE3" s="29" t="s">
         <v>78</v>
-      </c>
-      <c r="AE3" s="29" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2400,298 +2416,298 @@
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Z1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="R2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="U2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="7" t="s">
+      <c r="W2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="AD2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="AE2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="W3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Z3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AB3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AC3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AD3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AE3" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -2703,7 +2719,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" s="10">
         <v>0</v>
@@ -2715,52 +2731,52 @@
         <v>3</v>
       </c>
       <c r="K4" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="11">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11">
-        <v>0</v>
-      </c>
-      <c r="N4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="P4" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="R4" s="11">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="R4" s="11">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11" t="s">
+      <c r="T4" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>90</v>
       </c>
       <c r="U4" s="11">
         <v>8</v>
       </c>
       <c r="V4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="X4" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="W4" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="X4" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Z4" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="AA4" s="11">
         <v>20</v>
@@ -2781,13 +2797,13 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>96</v>
       </c>
       <c r="D5" s="13">
         <v>2</v>
@@ -2799,7 +2815,7 @@
         <v>57</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" s="13">
         <v>0</v>
@@ -2811,52 +2827,52 @@
         <v>3</v>
       </c>
       <c r="K5" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="14">
-        <v>0</v>
-      </c>
-      <c r="M5" s="14">
-        <v>0</v>
-      </c>
-      <c r="N5" s="14" t="s">
+      <c r="O5" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="O5" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="P5" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="R5" s="14">
+        <v>1</v>
+      </c>
+      <c r="S5" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="R5" s="14">
-        <v>1</v>
-      </c>
-      <c r="S5" s="14" t="s">
+      <c r="T5" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="U5" s="14">
         <v>8</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X5" s="14">
         <v>1</v>
       </c>
       <c r="Y5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z5" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="Z5" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="AA5" s="14">
         <v>20</v>
@@ -2872,18 +2888,18 @@
         <v>1</v>
       </c>
       <c r="AE5" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="D6" s="16">
         <v>3</v>
@@ -2895,7 +2911,7 @@
         <v>52</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H6" s="16">
         <v>0</v>
@@ -2916,43 +2932,43 @@
         <v>0</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R6" s="17">
         <v>0.3</v>
       </c>
       <c r="S6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="T6" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="U6" s="17">
         <v>223</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W6" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="X6" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="X6" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="17" t="s">
+      <c r="Z6" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="Z6" s="17" t="s">
-        <v>110</v>
       </c>
       <c r="AA6" s="17">
         <v>400</v>
@@ -2968,18 +2984,18 @@
         <v>1</v>
       </c>
       <c r="AE6" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>113</v>
       </c>
       <c r="D7" s="13">
         <v>4</v>
@@ -2991,7 +3007,7 @@
         <v>48</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H7" s="13">
         <v>0</v>
@@ -3003,52 +3019,52 @@
         <v>4</v>
       </c>
       <c r="K7" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
+        <v>1</v>
+      </c>
+      <c r="N7" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="L7" s="14">
-        <v>0</v>
-      </c>
-      <c r="M7" s="14">
-        <v>1</v>
-      </c>
-      <c r="N7" s="14" t="s">
+      <c r="O7" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="O7" s="14" t="s">
-        <v>117</v>
-      </c>
       <c r="P7" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R7" s="14">
         <v>1</v>
       </c>
       <c r="S7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="T7" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="U7" s="14">
         <v>4</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X7" s="14">
         <v>1</v>
       </c>
       <c r="Y7" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z7" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="AA7" s="14">
         <v>49</v>
@@ -3064,18 +3080,18 @@
         <v>1</v>
       </c>
       <c r="AE7" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>122</v>
       </c>
       <c r="D8" s="16">
         <v>5</v>
@@ -3087,7 +3103,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" s="16">
         <v>0</v>
@@ -3099,52 +3115,52 @@
         <v>4</v>
       </c>
       <c r="K8" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+      <c r="N8" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="L8" s="17">
-        <v>0</v>
-      </c>
-      <c r="M8" s="17">
-        <v>1</v>
-      </c>
-      <c r="N8" s="17" t="s">
+      <c r="O8" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="P8" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="P8" s="17" t="s">
-        <v>127</v>
-      </c>
       <c r="Q8" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R8" s="17">
         <v>1</v>
       </c>
       <c r="S8" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="T8" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="U8" s="17">
         <v>4</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X8" s="17">
         <v>1</v>
       </c>
       <c r="Y8" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z8" s="17" t="s">
         <v>128</v>
-      </c>
-      <c r="Z8" s="17" t="s">
-        <v>129</v>
       </c>
       <c r="AA8" s="17">
         <v>49</v>
@@ -3160,18 +3176,18 @@
         <v>1</v>
       </c>
       <c r="AE8" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="D9" s="13">
         <v>6</v>
@@ -3183,7 +3199,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H9" s="13">
         <v>0</v>
@@ -3204,43 +3220,43 @@
         <v>1</v>
       </c>
       <c r="N9" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="O9" s="14" t="s">
-        <v>135</v>
-      </c>
       <c r="P9" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R9" s="14">
         <v>1.2</v>
       </c>
       <c r="S9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="T9" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="U9" s="14">
         <v>2</v>
       </c>
       <c r="V9" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W9" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X9" s="14">
         <v>1</v>
       </c>
       <c r="Y9" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z9" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="Z9" s="14" t="s">
-        <v>137</v>
       </c>
       <c r="AA9" s="14">
         <v>46</v>
@@ -3256,18 +3272,18 @@
         <v>1</v>
       </c>
       <c r="AE9" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>141</v>
       </c>
       <c r="D10" s="16">
         <v>7</v>
@@ -3279,7 +3295,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H10" s="16">
         <v>0</v>
@@ -3291,52 +3307,52 @@
         <v>4</v>
       </c>
       <c r="K10" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" s="17">
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>1</v>
+      </c>
+      <c r="N10" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="L10" s="17">
-        <v>0</v>
-      </c>
-      <c r="M10" s="17">
-        <v>1</v>
-      </c>
-      <c r="N10" s="17" t="s">
+      <c r="O10" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="P10" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="P10" s="17" t="s">
-        <v>146</v>
-      </c>
       <c r="Q10" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R10" s="17">
         <v>1</v>
       </c>
       <c r="S10" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="T10" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="U10" s="17">
         <v>2</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W10" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X10" s="17">
         <v>1</v>
       </c>
       <c r="Y10" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z10" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA10" s="17">
         <v>52</v>
@@ -3352,18 +3368,18 @@
         <v>1</v>
       </c>
       <c r="AE10" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>151</v>
       </c>
       <c r="D11" s="13">
         <v>8</v>
@@ -3375,7 +3391,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>
@@ -3396,43 +3412,43 @@
         <v>1</v>
       </c>
       <c r="N11" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="O11" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="O11" s="14" t="s">
-        <v>154</v>
-      </c>
       <c r="P11" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R11" s="14">
         <v>1</v>
       </c>
       <c r="S11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="T11" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="T11" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="U11" s="14">
         <v>2</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W11" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X11" s="14">
         <v>1</v>
       </c>
       <c r="Y11" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z11" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="Z11" s="14" t="s">
-        <v>156</v>
       </c>
       <c r="AA11" s="14">
         <v>49</v>
@@ -3448,18 +3464,18 @@
         <v>1</v>
       </c>
       <c r="AE11" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>159</v>
       </c>
       <c r="D12" s="16">
         <v>9</v>
@@ -3471,7 +3487,7 @@
         <v>33</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H12" s="16">
         <v>0</v>
@@ -3483,52 +3499,52 @@
         <v>4</v>
       </c>
       <c r="K12" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L12" s="17">
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>0</v>
+      </c>
+      <c r="N12" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="L12" s="17">
-        <v>0</v>
-      </c>
-      <c r="M12" s="17">
-        <v>0</v>
-      </c>
-      <c r="N12" s="17" t="s">
+      <c r="O12" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="O12" s="17" t="s">
-        <v>163</v>
-      </c>
       <c r="P12" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R12" s="17">
         <v>1</v>
       </c>
       <c r="S12" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="T12" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="T12" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="U12" s="17">
         <v>2</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X12" s="17">
         <v>1</v>
       </c>
       <c r="Y12" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z12" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA12" s="17">
         <v>49</v>
@@ -3544,18 +3560,18 @@
         <v>1</v>
       </c>
       <c r="AE12" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="D13" s="13">
         <v>10</v>
@@ -3567,7 +3583,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H13" s="13">
         <v>0</v>
@@ -3588,43 +3604,43 @@
         <v>1</v>
       </c>
       <c r="N13" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="O13" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="O13" s="14" t="s">
-        <v>170</v>
-      </c>
       <c r="P13" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R13" s="14">
         <v>1</v>
       </c>
       <c r="S13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="T13" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="U13" s="14">
         <v>2</v>
       </c>
       <c r="V13" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W13" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X13" s="14">
         <v>1</v>
       </c>
       <c r="Y13" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z13" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA13" s="14">
         <v>52</v>
@@ -3640,18 +3656,18 @@
         <v>1</v>
       </c>
       <c r="AE13" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>173</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>174</v>
       </c>
       <c r="D14" s="16">
         <v>11</v>
@@ -3663,7 +3679,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H14" s="16">
         <v>0</v>
@@ -3675,52 +3691,52 @@
         <v>4</v>
       </c>
       <c r="K14" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" s="17">
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>1</v>
+      </c>
+      <c r="N14" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="L14" s="17">
-        <v>0</v>
-      </c>
-      <c r="M14" s="17">
-        <v>1</v>
-      </c>
-      <c r="N14" s="17" t="s">
+      <c r="O14" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="O14" s="17" t="s">
-        <v>178</v>
-      </c>
       <c r="P14" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R14" s="17">
         <v>1</v>
       </c>
       <c r="S14" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="T14" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="T14" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="U14" s="17">
         <v>2</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X14" s="17">
         <v>1</v>
       </c>
       <c r="Y14" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z14" s="17" t="s">
         <v>179</v>
-      </c>
-      <c r="Z14" s="17" t="s">
-        <v>180</v>
       </c>
       <c r="AA14" s="17">
         <v>46</v>
@@ -3736,18 +3752,18 @@
         <v>1</v>
       </c>
       <c r="AE14" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>184</v>
       </c>
       <c r="D15" s="13">
         <v>12</v>
@@ -3759,7 +3775,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H15" s="13">
         <v>0</v>
@@ -3780,43 +3796,43 @@
         <v>0</v>
       </c>
       <c r="N15" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="O15" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="P15" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="R15" s="14">
+        <v>1</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="T15" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="P15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="R15" s="14">
-        <v>1</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="T15" s="14" t="s">
+      <c r="U15" s="14">
+        <v>1</v>
+      </c>
+      <c r="V15" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="X15" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="U15" s="14">
-        <v>1</v>
-      </c>
-      <c r="V15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="W15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="X15" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="14" t="s">
+      <c r="Z15" s="14" t="s">
         <v>189</v>
-      </c>
-      <c r="Z15" s="14" t="s">
-        <v>190</v>
       </c>
       <c r="AA15" s="14">
         <v>57</v>
@@ -3832,18 +3848,18 @@
         <v>1</v>
       </c>
       <c r="AE15" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>193</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>194</v>
       </c>
       <c r="D16" s="16">
         <v>13</v>
@@ -3855,7 +3871,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H16" s="16">
         <v>0</v>
@@ -3876,43 +3892,43 @@
         <v>1</v>
       </c>
       <c r="N16" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="O16" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="O16" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="P16" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R16" s="17">
         <v>1</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U16" s="17">
         <v>5</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X16" s="17">
         <v>1</v>
       </c>
       <c r="Y16" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z16" s="17" t="s">
         <v>198</v>
-      </c>
-      <c r="Z16" s="17" t="s">
-        <v>199</v>
       </c>
       <c r="AA16" s="17">
         <v>57</v>
@@ -3928,18 +3944,18 @@
         <v>1</v>
       </c>
       <c r="AE16" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>202</v>
       </c>
       <c r="D17" s="13">
         <v>14</v>
@@ -3951,7 +3967,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H17" s="13">
         <v>0</v>
@@ -3972,43 +3988,43 @@
         <v>1</v>
       </c>
       <c r="N17" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="O17" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="O17" s="14" t="s">
+      <c r="P17" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" s="14">
+        <v>1</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="T17" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="P17" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="R17" s="14">
-        <v>1</v>
-      </c>
-      <c r="S17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="T17" s="14" t="s">
+      <c r="U17" s="14">
+        <v>1</v>
+      </c>
+      <c r="V17" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="X17" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="U17" s="14">
-        <v>1</v>
-      </c>
-      <c r="V17" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="W17" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="X17" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="14" t="s">
+      <c r="Z17" s="14" t="s">
         <v>207</v>
-      </c>
-      <c r="Z17" s="14" t="s">
-        <v>208</v>
       </c>
       <c r="AA17" s="14">
         <v>62</v>
@@ -4024,18 +4040,18 @@
         <v>1</v>
       </c>
       <c r="AE17" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>211</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>212</v>
       </c>
       <c r="D18" s="16">
         <v>15</v>
@@ -4047,7 +4063,7 @@
         <v>39</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H18" s="16">
         <v>0</v>
@@ -4068,43 +4084,43 @@
         <v>1</v>
       </c>
       <c r="N18" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="O18" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="O18" s="17" t="s">
-        <v>215</v>
-      </c>
       <c r="P18" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R18" s="17">
         <v>1</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U18" s="17">
         <v>6</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W18" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X18" s="17">
         <v>1</v>
       </c>
       <c r="Y18" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z18" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA18" s="17">
         <v>59</v>
@@ -4120,18 +4136,18 @@
         <v>1</v>
       </c>
       <c r="AE18" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="D19" s="13">
         <v>16</v>
@@ -4143,10 +4159,10 @@
         <v>19</v>
       </c>
       <c r="G19" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>220</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>221</v>
       </c>
       <c r="I19" s="14">
         <v>19</v>
@@ -4155,52 +4171,52 @@
         <v>2</v>
       </c>
       <c r="K19" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="L19" s="14">
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="L19" s="14">
-        <v>0</v>
-      </c>
-      <c r="M19" s="14">
-        <v>0</v>
-      </c>
-      <c r="N19" s="14" t="s">
+      <c r="O19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="R19" s="14">
+        <v>1</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="U19" s="14">
+        <v>1</v>
+      </c>
+      <c r="V19" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="R19" s="14">
-        <v>1</v>
-      </c>
-      <c r="S19" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="T19" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="U19" s="14">
-        <v>1</v>
-      </c>
-      <c r="V19" s="14" t="s">
+      <c r="W19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="X19" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="W19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="X19" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="14" t="s">
+      <c r="Z19" s="14" t="s">
         <v>225</v>
-      </c>
-      <c r="Z19" s="14" t="s">
-        <v>226</v>
       </c>
       <c r="AA19" s="14">
         <v>64</v>
@@ -4216,18 +4232,18 @@
         <v>0.5</v>
       </c>
       <c r="AE19" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="C20" s="17" t="s">
         <v>228</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>229</v>
       </c>
       <c r="D20" s="17">
         <v>17</v>
@@ -4239,10 +4255,10 @@
         <v>17</v>
       </c>
       <c r="G20" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>230</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>231</v>
       </c>
       <c r="I20" s="17">
         <v>17</v>
@@ -4260,43 +4276,43 @@
         <v>1</v>
       </c>
       <c r="N20" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="O20" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="O20" s="17" t="s">
-        <v>233</v>
-      </c>
       <c r="P20" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R20" s="17">
         <v>1</v>
       </c>
       <c r="S20" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="T20" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="T20" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="U20" s="17">
         <v>8</v>
       </c>
       <c r="V20" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="W20" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="X20" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z20" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="W20" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="X20" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z20" s="17" t="s">
-        <v>235</v>
       </c>
       <c r="AA20" s="17">
         <v>59</v>
@@ -4312,18 +4328,18 @@
         <v>0.2</v>
       </c>
       <c r="AE20" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>237</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>238</v>
       </c>
       <c r="D21" s="13">
         <v>18</v>
@@ -4335,7 +4351,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H21" s="13">
         <v>0</v>
@@ -4356,43 +4372,43 @@
         <v>1</v>
       </c>
       <c r="N21" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="O21" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="O21" s="14" t="s">
-        <v>241</v>
-      </c>
       <c r="P21" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R21" s="14">
         <v>1.2</v>
       </c>
       <c r="S21" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T21" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U21" s="14">
         <v>6</v>
       </c>
       <c r="V21" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W21" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X21" s="14">
         <v>1</v>
       </c>
       <c r="Y21" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z21" s="14" t="s">
         <v>242</v>
-      </c>
-      <c r="Z21" s="14" t="s">
-        <v>243</v>
       </c>
       <c r="AA21" s="14">
         <v>73</v>
@@ -4408,18 +4424,18 @@
         <v>1</v>
       </c>
       <c r="AE21" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>247</v>
       </c>
       <c r="D22" s="16">
         <v>19</v>
@@ -4431,7 +4447,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H22" s="16">
         <v>0</v>
@@ -4452,43 +4468,43 @@
         <v>1</v>
       </c>
       <c r="N22" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="O22" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="O22" s="17" t="s">
-        <v>250</v>
-      </c>
       <c r="P22" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R22" s="17">
         <v>0.75</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T22" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="U22" s="17">
+        <v>1</v>
+      </c>
+      <c r="V22" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="W22" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="X22" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="U22" s="17">
-        <v>1</v>
-      </c>
-      <c r="V22" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="W22" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="X22" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="17" t="s">
+      <c r="Z22" s="17" t="s">
         <v>252</v>
-      </c>
-      <c r="Z22" s="17" t="s">
-        <v>253</v>
       </c>
       <c r="AA22" s="17">
         <v>62</v>
@@ -4504,18 +4520,18 @@
         <v>1</v>
       </c>
       <c r="AE22" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>255</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>256</v>
       </c>
       <c r="D23" s="13">
         <v>20</v>
@@ -4527,7 +4543,7 @@
         <v>14</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H23" s="13">
         <v>0</v>
@@ -4548,43 +4564,43 @@
         <v>1</v>
       </c>
       <c r="N23" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="O23" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="O23" s="14" t="s">
-        <v>259</v>
-      </c>
       <c r="P23" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R23" s="14">
         <v>0.9</v>
       </c>
       <c r="S23" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T23" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="U23" s="14">
+        <v>0</v>
+      </c>
+      <c r="V23" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="W23" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="X23" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="U23" s="14">
-        <v>0</v>
-      </c>
-      <c r="V23" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="W23" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="X23" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="14" t="s">
-        <v>252</v>
-      </c>
       <c r="Z23" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AA23" s="14">
         <v>66</v>
@@ -4600,18 +4616,18 @@
         <v>1</v>
       </c>
       <c r="AE23" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>262</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>263</v>
       </c>
       <c r="D24" s="16">
         <v>21</v>
@@ -4623,7 +4639,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H24" s="16">
         <v>0</v>
@@ -4644,43 +4660,43 @@
         <v>1</v>
       </c>
       <c r="N24" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="O24" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="O24" s="17" t="s">
-        <v>266</v>
-      </c>
       <c r="P24" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R24" s="17">
         <v>0.9</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U24" s="17">
         <v>6</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X24" s="17">
         <v>1</v>
       </c>
       <c r="Y24" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z24" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA24" s="17">
         <v>81</v>
@@ -4696,18 +4712,18 @@
         <v>1</v>
       </c>
       <c r="AE24" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>270</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>271</v>
       </c>
       <c r="D25" s="13">
         <v>22</v>
@@ -4719,64 +4735,64 @@
         <v>1</v>
       </c>
       <c r="G25" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="14">
+        <v>1</v>
+      </c>
+      <c r="J25" s="14">
+        <v>1</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="14">
+        <v>1</v>
+      </c>
+      <c r="N25" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14">
-        <v>1</v>
-      </c>
-      <c r="J25" s="14">
-        <v>1</v>
-      </c>
-      <c r="K25" s="14">
-        <v>0</v>
-      </c>
-      <c r="L25" s="14">
-        <v>0</v>
-      </c>
-      <c r="M25" s="14">
-        <v>1</v>
-      </c>
-      <c r="N25" s="14" t="s">
+      <c r="O25" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="O25" s="14" t="s">
-        <v>274</v>
-      </c>
       <c r="P25" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R25" s="14">
         <v>0.9</v>
       </c>
       <c r="S25" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T25" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U25" s="14">
         <v>0</v>
       </c>
       <c r="V25" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W25" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X25" s="14">
         <v>1</v>
       </c>
       <c r="Y25" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z25" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA25" s="14">
         <v>73</v>
@@ -4792,18 +4808,18 @@
         <v>1</v>
       </c>
       <c r="AE25" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>277</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>278</v>
       </c>
       <c r="D26" s="19">
         <v>23</v>
@@ -4815,7 +4831,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H26" s="19">
         <v>0</v>
@@ -4836,43 +4852,43 @@
         <v>1</v>
       </c>
       <c r="N26" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="O26" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="O26" s="20" t="s">
+      <c r="P26" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q26" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="R26" s="20">
+        <v>1</v>
+      </c>
+      <c r="S26" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="T26" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="P26" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q26" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="R26" s="20">
-        <v>1</v>
-      </c>
-      <c r="S26" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="T26" s="20" t="s">
+      <c r="U26" s="20">
+        <v>0</v>
+      </c>
+      <c r="V26" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="W26" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="X26" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="U26" s="20">
-        <v>0</v>
-      </c>
-      <c r="V26" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="W26" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="X26" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="20" t="s">
+      <c r="Z26" s="20" t="s">
         <v>283</v>
-      </c>
-      <c r="Z26" s="20" t="s">
-        <v>284</v>
       </c>
       <c r="AA26" s="20">
         <v>81</v>
@@ -4888,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="AE26" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4940,298 +4956,298 @@
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Z1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="R2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="U2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="7" t="s">
+      <c r="W2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="AD2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="AE2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="W3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Z3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AB3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AC3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AD3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AE3" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -5243,7 +5259,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" s="10">
         <v>0</v>
@@ -5255,52 +5271,52 @@
         <v>3</v>
       </c>
       <c r="K4" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="11">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11">
-        <v>0</v>
-      </c>
-      <c r="N4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="P4" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="R4" s="11">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="R4" s="11">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11" t="s">
+      <c r="T4" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>90</v>
       </c>
       <c r="U4" s="11">
         <v>8</v>
       </c>
       <c r="V4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="X4" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="W4" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="X4" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Z4" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="AA4" s="11">
         <v>20</v>
@@ -5321,13 +5337,13 @@
     </row>
     <row r="5" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>96</v>
       </c>
       <c r="D5" s="13">
         <v>2</v>
@@ -5339,7 +5355,7 @@
         <v>57</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" s="13">
         <v>0</v>
@@ -5351,52 +5367,52 @@
         <v>3</v>
       </c>
       <c r="K5" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="14">
-        <v>0</v>
-      </c>
-      <c r="M5" s="14">
-        <v>0</v>
-      </c>
-      <c r="N5" s="14" t="s">
+      <c r="O5" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="O5" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="P5" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="R5" s="14">
+        <v>1</v>
+      </c>
+      <c r="S5" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="R5" s="14">
-        <v>1</v>
-      </c>
-      <c r="S5" s="14" t="s">
+      <c r="T5" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="U5" s="14">
         <v>8</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X5" s="14">
         <v>1</v>
       </c>
       <c r="Y5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z5" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="Z5" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="AA5" s="14">
         <v>20</v>
@@ -5412,18 +5428,18 @@
         <v>1</v>
       </c>
       <c r="AE5" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="D6" s="16">
         <v>3</v>
@@ -5435,7 +5451,7 @@
         <v>52</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H6" s="16">
         <v>0</v>
@@ -5456,43 +5472,43 @@
         <v>0</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R6" s="17">
         <v>0.3</v>
       </c>
       <c r="S6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="T6" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="U6" s="17">
         <v>223</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W6" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="X6" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="X6" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="17" t="s">
+      <c r="Z6" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="Z6" s="17" t="s">
-        <v>110</v>
       </c>
       <c r="AA6" s="17">
         <v>400</v>
@@ -5508,18 +5524,18 @@
         <v>1</v>
       </c>
       <c r="AE6" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>113</v>
       </c>
       <c r="D7" s="13">
         <v>4</v>
@@ -5531,7 +5547,7 @@
         <v>48</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H7" s="13">
         <v>0</v>
@@ -5543,52 +5559,52 @@
         <v>4</v>
       </c>
       <c r="K7" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
+        <v>1</v>
+      </c>
+      <c r="N7" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="L7" s="14">
-        <v>0</v>
-      </c>
-      <c r="M7" s="14">
-        <v>1</v>
-      </c>
-      <c r="N7" s="14" t="s">
+      <c r="O7" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="O7" s="14" t="s">
-        <v>117</v>
-      </c>
       <c r="P7" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R7" s="14">
         <v>1</v>
       </c>
       <c r="S7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="T7" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="U7" s="14">
         <v>4</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X7" s="14">
         <v>1</v>
       </c>
       <c r="Y7" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z7" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="AA7" s="14">
         <v>49</v>
@@ -5604,18 +5620,18 @@
         <v>1</v>
       </c>
       <c r="AE7" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>122</v>
       </c>
       <c r="D8" s="16">
         <v>5</v>
@@ -5627,7 +5643,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" s="16">
         <v>0</v>
@@ -5639,52 +5655,52 @@
         <v>4</v>
       </c>
       <c r="K8" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1</v>
+      </c>
+      <c r="N8" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="L8" s="17">
-        <v>0</v>
-      </c>
-      <c r="M8" s="17">
-        <v>1</v>
-      </c>
-      <c r="N8" s="17" t="s">
+      <c r="O8" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="P8" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="P8" s="17" t="s">
-        <v>127</v>
-      </c>
       <c r="Q8" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R8" s="17">
         <v>1</v>
       </c>
       <c r="S8" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="T8" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="U8" s="17">
         <v>4</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X8" s="17">
         <v>1</v>
       </c>
       <c r="Y8" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z8" s="17" t="s">
         <v>128</v>
-      </c>
-      <c r="Z8" s="17" t="s">
-        <v>129</v>
       </c>
       <c r="AA8" s="17">
         <v>49</v>
@@ -5700,18 +5716,18 @@
         <v>1</v>
       </c>
       <c r="AE8" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="D9" s="13">
         <v>6</v>
@@ -5723,7 +5739,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H9" s="13">
         <v>0</v>
@@ -5744,43 +5760,43 @@
         <v>1</v>
       </c>
       <c r="N9" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="O9" s="14" t="s">
-        <v>135</v>
-      </c>
       <c r="P9" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R9" s="14">
         <v>1.2</v>
       </c>
       <c r="S9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="T9" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="U9" s="14">
         <v>2</v>
       </c>
       <c r="V9" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W9" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X9" s="14">
         <v>1</v>
       </c>
       <c r="Y9" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z9" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="Z9" s="14" t="s">
-        <v>137</v>
       </c>
       <c r="AA9" s="14">
         <v>46</v>
@@ -5796,18 +5812,18 @@
         <v>1</v>
       </c>
       <c r="AE9" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>141</v>
       </c>
       <c r="D10" s="16">
         <v>7</v>
@@ -5819,7 +5835,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H10" s="16">
         <v>0</v>
@@ -5831,52 +5847,52 @@
         <v>4</v>
       </c>
       <c r="K10" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" s="17">
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>1</v>
+      </c>
+      <c r="N10" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="L10" s="17">
-        <v>0</v>
-      </c>
-      <c r="M10" s="17">
-        <v>1</v>
-      </c>
-      <c r="N10" s="17" t="s">
+      <c r="O10" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="P10" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="P10" s="17" t="s">
-        <v>146</v>
-      </c>
       <c r="Q10" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R10" s="17">
         <v>1</v>
       </c>
       <c r="S10" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="T10" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="U10" s="17">
         <v>2</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W10" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X10" s="17">
         <v>1</v>
       </c>
       <c r="Y10" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z10" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA10" s="17">
         <v>52</v>
@@ -5892,18 +5908,18 @@
         <v>1</v>
       </c>
       <c r="AE10" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>151</v>
       </c>
       <c r="D11" s="13">
         <v>8</v>
@@ -5915,7 +5931,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>
@@ -5936,43 +5952,43 @@
         <v>1</v>
       </c>
       <c r="N11" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="O11" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="O11" s="14" t="s">
-        <v>154</v>
-      </c>
       <c r="P11" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R11" s="14">
         <v>1</v>
       </c>
       <c r="S11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="T11" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="T11" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="U11" s="14">
         <v>2</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W11" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X11" s="14">
         <v>1</v>
       </c>
       <c r="Y11" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z11" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="Z11" s="14" t="s">
-        <v>156</v>
       </c>
       <c r="AA11" s="14">
         <v>49</v>
@@ -5988,18 +6004,18 @@
         <v>1</v>
       </c>
       <c r="AE11" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>159</v>
       </c>
       <c r="D12" s="16">
         <v>9</v>
@@ -6011,7 +6027,7 @@
         <v>33</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H12" s="16">
         <v>0</v>
@@ -6023,52 +6039,52 @@
         <v>4</v>
       </c>
       <c r="K12" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L12" s="17">
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>0</v>
+      </c>
+      <c r="N12" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="L12" s="17">
-        <v>0</v>
-      </c>
-      <c r="M12" s="17">
-        <v>0</v>
-      </c>
-      <c r="N12" s="17" t="s">
+      <c r="O12" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="O12" s="17" t="s">
-        <v>163</v>
-      </c>
       <c r="P12" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R12" s="17">
         <v>1</v>
       </c>
       <c r="S12" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="T12" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="T12" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="U12" s="17">
         <v>2</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X12" s="17">
         <v>1</v>
       </c>
       <c r="Y12" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z12" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA12" s="17">
         <v>49</v>
@@ -6084,18 +6100,18 @@
         <v>1</v>
       </c>
       <c r="AE12" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="D13" s="13">
         <v>10</v>
@@ -6107,7 +6123,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H13" s="13">
         <v>0</v>
@@ -6128,43 +6144,43 @@
         <v>1</v>
       </c>
       <c r="N13" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="O13" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="O13" s="14" t="s">
-        <v>170</v>
-      </c>
       <c r="P13" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R13" s="14">
         <v>1</v>
       </c>
       <c r="S13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="T13" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="U13" s="14">
         <v>2</v>
       </c>
       <c r="V13" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W13" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X13" s="14">
         <v>1</v>
       </c>
       <c r="Y13" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z13" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA13" s="14">
         <v>52</v>
@@ -6180,18 +6196,18 @@
         <v>1</v>
       </c>
       <c r="AE13" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>173</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>174</v>
       </c>
       <c r="D14" s="16">
         <v>11</v>
@@ -6203,7 +6219,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H14" s="16">
         <v>0</v>
@@ -6215,52 +6231,52 @@
         <v>4</v>
       </c>
       <c r="K14" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" s="17">
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>1</v>
+      </c>
+      <c r="N14" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="L14" s="17">
-        <v>0</v>
-      </c>
-      <c r="M14" s="17">
-        <v>1</v>
-      </c>
-      <c r="N14" s="17" t="s">
+      <c r="O14" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="O14" s="17" t="s">
-        <v>178</v>
-      </c>
       <c r="P14" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R14" s="17">
         <v>1</v>
       </c>
       <c r="S14" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="T14" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="T14" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="U14" s="17">
         <v>2</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X14" s="17">
         <v>1</v>
       </c>
       <c r="Y14" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z14" s="17" t="s">
         <v>179</v>
-      </c>
-      <c r="Z14" s="17" t="s">
-        <v>180</v>
       </c>
       <c r="AA14" s="17">
         <v>46</v>
@@ -6276,18 +6292,18 @@
         <v>1</v>
       </c>
       <c r="AE14" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>184</v>
       </c>
       <c r="D15" s="13">
         <v>12</v>
@@ -6299,7 +6315,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H15" s="13">
         <v>0</v>
@@ -6320,43 +6336,43 @@
         <v>0</v>
       </c>
       <c r="N15" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="O15" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="P15" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="R15" s="14">
+        <v>1</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="T15" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="P15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="R15" s="14">
-        <v>1</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="T15" s="14" t="s">
+      <c r="U15" s="14">
+        <v>1</v>
+      </c>
+      <c r="V15" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="X15" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="U15" s="14">
-        <v>1</v>
-      </c>
-      <c r="V15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="W15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="X15" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="14" t="s">
+      <c r="Z15" s="14" t="s">
         <v>189</v>
-      </c>
-      <c r="Z15" s="14" t="s">
-        <v>190</v>
       </c>
       <c r="AA15" s="14">
         <v>57</v>
@@ -6372,18 +6388,18 @@
         <v>1</v>
       </c>
       <c r="AE15" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>193</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>194</v>
       </c>
       <c r="D16" s="16">
         <v>13</v>
@@ -6395,7 +6411,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H16" s="16">
         <v>0</v>
@@ -6416,43 +6432,43 @@
         <v>1</v>
       </c>
       <c r="N16" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="O16" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="O16" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="P16" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R16" s="17">
         <v>1</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U16" s="17">
         <v>5</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X16" s="17">
         <v>1</v>
       </c>
       <c r="Y16" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z16" s="17" t="s">
         <v>198</v>
-      </c>
-      <c r="Z16" s="17" t="s">
-        <v>199</v>
       </c>
       <c r="AA16" s="17">
         <v>57</v>
@@ -6468,18 +6484,18 @@
         <v>1</v>
       </c>
       <c r="AE16" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>202</v>
       </c>
       <c r="D17" s="13">
         <v>14</v>
@@ -6491,7 +6507,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H17" s="13">
         <v>0</v>
@@ -6512,43 +6528,43 @@
         <v>1</v>
       </c>
       <c r="N17" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="O17" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="O17" s="14" t="s">
+      <c r="P17" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" s="14">
+        <v>1</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="T17" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="P17" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="R17" s="14">
-        <v>1</v>
-      </c>
-      <c r="S17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="T17" s="14" t="s">
+      <c r="U17" s="14">
+        <v>1</v>
+      </c>
+      <c r="V17" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="X17" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="U17" s="14">
-        <v>1</v>
-      </c>
-      <c r="V17" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="W17" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="X17" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="14" t="s">
+      <c r="Z17" s="14" t="s">
         <v>207</v>
-      </c>
-      <c r="Z17" s="14" t="s">
-        <v>208</v>
       </c>
       <c r="AA17" s="14">
         <v>62</v>
@@ -6564,18 +6580,18 @@
         <v>1</v>
       </c>
       <c r="AE17" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>211</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>212</v>
       </c>
       <c r="D18" s="16">
         <v>15</v>
@@ -6587,7 +6603,7 @@
         <v>39</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H18" s="16">
         <v>0</v>
@@ -6608,43 +6624,43 @@
         <v>1</v>
       </c>
       <c r="N18" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="O18" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="O18" s="17" t="s">
-        <v>215</v>
-      </c>
       <c r="P18" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R18" s="17">
         <v>1</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U18" s="17">
         <v>6</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W18" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X18" s="17">
         <v>1</v>
       </c>
       <c r="Y18" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z18" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA18" s="17">
         <v>59</v>
@@ -6660,18 +6676,18 @@
         <v>1</v>
       </c>
       <c r="AE18" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="D19" s="13">
         <v>16</v>
@@ -6683,10 +6699,10 @@
         <v>19</v>
       </c>
       <c r="G19" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>220</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>221</v>
       </c>
       <c r="I19" s="14">
         <v>19</v>
@@ -6695,52 +6711,52 @@
         <v>2</v>
       </c>
       <c r="K19" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="L19" s="14">
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="L19" s="14">
-        <v>0</v>
-      </c>
-      <c r="M19" s="14">
-        <v>0</v>
-      </c>
-      <c r="N19" s="14" t="s">
+      <c r="O19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="R19" s="14">
+        <v>1</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="U19" s="14">
+        <v>1</v>
+      </c>
+      <c r="V19" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="R19" s="14">
-        <v>1</v>
-      </c>
-      <c r="S19" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="T19" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="U19" s="14">
-        <v>1</v>
-      </c>
-      <c r="V19" s="14" t="s">
+      <c r="W19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="X19" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="W19" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="X19" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="14" t="s">
+      <c r="Z19" s="14" t="s">
         <v>225</v>
-      </c>
-      <c r="Z19" s="14" t="s">
-        <v>226</v>
       </c>
       <c r="AA19" s="14">
         <v>64</v>
@@ -6756,18 +6772,18 @@
         <v>0.5</v>
       </c>
       <c r="AE19" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="C20" s="17" t="s">
         <v>228</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>229</v>
       </c>
       <c r="D20" s="17">
         <v>17</v>
@@ -6779,10 +6795,10 @@
         <v>17</v>
       </c>
       <c r="G20" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>230</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>231</v>
       </c>
       <c r="I20" s="17">
         <v>17</v>
@@ -6800,43 +6816,43 @@
         <v>1</v>
       </c>
       <c r="N20" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="O20" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="O20" s="17" t="s">
-        <v>233</v>
-      </c>
       <c r="P20" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R20" s="17">
         <v>1</v>
       </c>
       <c r="S20" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="T20" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="T20" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="U20" s="17">
         <v>8</v>
       </c>
       <c r="V20" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="W20" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="X20" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z20" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="W20" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="X20" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z20" s="17" t="s">
-        <v>235</v>
       </c>
       <c r="AA20" s="17">
         <v>59</v>
@@ -6852,18 +6868,18 @@
         <v>0.2</v>
       </c>
       <c r="AE20" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>237</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>238</v>
       </c>
       <c r="D21" s="13">
         <v>18</v>
@@ -6875,7 +6891,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H21" s="13">
         <v>0</v>
@@ -6896,43 +6912,43 @@
         <v>1</v>
       </c>
       <c r="N21" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="O21" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="O21" s="14" t="s">
-        <v>241</v>
-      </c>
       <c r="P21" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R21" s="14">
         <v>1.2</v>
       </c>
       <c r="S21" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T21" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U21" s="14">
         <v>6</v>
       </c>
       <c r="V21" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W21" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X21" s="14">
         <v>1</v>
       </c>
       <c r="Y21" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z21" s="14" t="s">
         <v>242</v>
-      </c>
-      <c r="Z21" s="14" t="s">
-        <v>243</v>
       </c>
       <c r="AA21" s="14">
         <v>73</v>
@@ -6948,18 +6964,18 @@
         <v>1</v>
       </c>
       <c r="AE21" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>247</v>
       </c>
       <c r="D22" s="16">
         <v>19</v>
@@ -6971,7 +6987,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H22" s="16">
         <v>0</v>
@@ -6992,43 +7008,43 @@
         <v>1</v>
       </c>
       <c r="N22" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="O22" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="O22" s="17" t="s">
-        <v>250</v>
-      </c>
       <c r="P22" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R22" s="17">
         <v>0.75</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T22" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="U22" s="17">
+        <v>1</v>
+      </c>
+      <c r="V22" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="W22" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="X22" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="U22" s="17">
-        <v>1</v>
-      </c>
-      <c r="V22" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="W22" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="X22" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="17" t="s">
+      <c r="Z22" s="17" t="s">
         <v>252</v>
-      </c>
-      <c r="Z22" s="17" t="s">
-        <v>253</v>
       </c>
       <c r="AA22" s="17">
         <v>62</v>
@@ -7044,18 +7060,18 @@
         <v>1</v>
       </c>
       <c r="AE22" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>255</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>256</v>
       </c>
       <c r="D23" s="13">
         <v>20</v>
@@ -7067,7 +7083,7 @@
         <v>14</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H23" s="13">
         <v>0</v>
@@ -7088,43 +7104,43 @@
         <v>1</v>
       </c>
       <c r="N23" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="O23" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="O23" s="14" t="s">
-        <v>259</v>
-      </c>
       <c r="P23" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R23" s="14">
         <v>0.9</v>
       </c>
       <c r="S23" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T23" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="U23" s="14">
+        <v>0</v>
+      </c>
+      <c r="V23" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="W23" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="X23" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="U23" s="14">
-        <v>0</v>
-      </c>
-      <c r="V23" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="W23" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="X23" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="14" t="s">
-        <v>252</v>
-      </c>
       <c r="Z23" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AA23" s="14">
         <v>66</v>
@@ -7140,18 +7156,18 @@
         <v>1</v>
       </c>
       <c r="AE23" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>262</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>263</v>
       </c>
       <c r="D24" s="16">
         <v>21</v>
@@ -7163,7 +7179,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H24" s="16">
         <v>0</v>
@@ -7184,43 +7200,43 @@
         <v>1</v>
       </c>
       <c r="N24" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="O24" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="O24" s="17" t="s">
-        <v>266</v>
-      </c>
       <c r="P24" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R24" s="17">
         <v>0.9</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U24" s="17">
         <v>6</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X24" s="17">
         <v>1</v>
       </c>
       <c r="Y24" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z24" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA24" s="17">
         <v>81</v>
@@ -7236,18 +7252,18 @@
         <v>1</v>
       </c>
       <c r="AE24" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>270</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>271</v>
       </c>
       <c r="D25" s="13">
         <v>22</v>
@@ -7259,64 +7275,64 @@
         <v>1</v>
       </c>
       <c r="G25" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="14">
+        <v>1</v>
+      </c>
+      <c r="J25" s="14">
+        <v>1</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="14">
+        <v>1</v>
+      </c>
+      <c r="N25" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14">
-        <v>1</v>
-      </c>
-      <c r="J25" s="14">
-        <v>1</v>
-      </c>
-      <c r="K25" s="14">
-        <v>0</v>
-      </c>
-      <c r="L25" s="14">
-        <v>0</v>
-      </c>
-      <c r="M25" s="14">
-        <v>1</v>
-      </c>
-      <c r="N25" s="14" t="s">
+      <c r="O25" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="O25" s="14" t="s">
-        <v>274</v>
-      </c>
       <c r="P25" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R25" s="14">
         <v>0.9</v>
       </c>
       <c r="S25" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T25" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U25" s="14">
         <v>0</v>
       </c>
       <c r="V25" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W25" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X25" s="14">
         <v>1</v>
       </c>
       <c r="Y25" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z25" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA25" s="14">
         <v>73</v>
@@ -7332,18 +7348,18 @@
         <v>1</v>
       </c>
       <c r="AE25" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>277</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>278</v>
       </c>
       <c r="D26" s="19">
         <v>23</v>
@@ -7355,7 +7371,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H26" s="19">
         <v>0</v>
@@ -7376,43 +7392,43 @@
         <v>1</v>
       </c>
       <c r="N26" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="O26" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="O26" s="20" t="s">
+      <c r="P26" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q26" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="R26" s="20">
+        <v>1</v>
+      </c>
+      <c r="S26" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="T26" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="P26" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q26" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="R26" s="20">
-        <v>1</v>
-      </c>
-      <c r="S26" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="T26" s="20" t="s">
+      <c r="U26" s="20">
+        <v>0</v>
+      </c>
+      <c r="V26" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="W26" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="X26" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="U26" s="20">
-        <v>0</v>
-      </c>
-      <c r="V26" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="W26" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="X26" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="20" t="s">
+      <c r="Z26" s="20" t="s">
         <v>283</v>
-      </c>
-      <c r="Z26" s="20" t="s">
-        <v>284</v>
       </c>
       <c r="AA26" s="20">
         <v>81</v>
@@ -7428,7 +7444,7 @@
         <v>1</v>
       </c>
       <c r="AE26" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/tools/omelox-excel/template/sample_data.xlsx
+++ b/tools/omelox-excel/template/sample_data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\develop\project\gamingcity\gamecity-server-omelox\shared\excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74FCD4E-022A-4807-BD79-0FC74B3B6474}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -18,22 +12,12 @@
     <sheet name="default" sheetId="6" r:id="rId3"/>
     <sheet name="google" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="291">
   <si>
     <t>字段名</t>
   </si>
@@ -53,10 +37,25 @@
     <t>字段名的中文解释、含义说明</t>
   </si>
   <si>
+    <t>use_range</t>
+  </si>
+  <si>
+    <t>1:双端共享2：服务器专用3：客户端专用</t>
+  </si>
+  <si>
     <t>config_type</t>
   </si>
   <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>model：模型；data：数据配置；const：常量配置；lang：语言配置;  error：错误码;</t>
+  </si>
+  <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>sample_data</t>
   </si>
   <si>
     <t>模型名称</t>
@@ -94,7 +93,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -105,7 +103,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -192,7 +189,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -203,7 +199,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>nt</t>
@@ -312,6 +307,20 @@
     <t>用于场景</t>
   </si>
   <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+  </si>
+  <si>
     <t>denglongyu_boss</t>
   </si>
   <si>
@@ -927,35 +936,20 @@
     <t>jqy</t>
   </si>
   <si>
-    <t>model</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_range</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:双端共享2：服务器专用3：客户端专用</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>denglongyu_boss11</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>sample_data</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>model：模型；data：数据配置；const：常量配置；lang：语言配置;  error：错误码;</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,7 +961,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -975,14 +968,19 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -990,65 +988,12 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1056,26 +1001,185 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1102,14 +1206,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79992065187536243"/>
-        <bgColor theme="7" tint="0.79992065187536243"/>
+        <fgColor theme="7" tint="0.799920651875362"/>
+        <bgColor theme="7" tint="0.799920651875362"/>
       </patternFill>
     </fill>
     <fill>
@@ -1126,13 +1230,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,8 +1246,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1324,28 +1614,270 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1354,64 +1886,64 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="54" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="2" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="12" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1419,45 +1951,78 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="58">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="常规 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="常规 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="常规 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="常规 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="常规 3 3" xfId="4" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="常规 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="常规 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="13"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="常规 2 2 2" xfId="36"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="37" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="39" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="40" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="41" builtinId="37"/>
+    <cellStyle name="常规 3 2" xfId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="常规 3 3" xfId="46"/>
+    <cellStyle name="强调文字颜色 5" xfId="47" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="49" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="50" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="51" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="52" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="53" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="54"/>
+    <cellStyle name="常规 3" xfId="55"/>
+    <cellStyle name="常规 4" xfId="56"/>
+    <cellStyle name="常规 5" xfId="57"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.39942625202185128"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="64">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1471,34 +2036,441 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.39942625202185128"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="5" tint="0.399426252021851"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.39942625202185128"/>
+          <bgColor theme="5" tint="0.399426252021851"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.399426252021851"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1508,92 +2480,85 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:AE26" totalsRowShown="0">
-  <autoFilter ref="A3:AE26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AE26" totalsRowShown="0">
+  <autoFilter ref="A3:AE26"/>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="编号"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="鱼类名称"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="名称"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="唯一id"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="体型"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="鱼ID"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="鱼类描述"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="特殊说明"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="模型ID"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="类型1234"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="奖金鱼名称图片"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="翻转"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="朝向调整"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="图鉴icon"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="移动动画"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="挂件，目前是鱼数组"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="挂件参数"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="体型缩放"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="刷新频率秒"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="条数概率"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="路径ID"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="死亡技能"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="初始技能"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="初始血量"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="分值"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="掉落包id组"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="移动速度"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="逃跑速度"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="鱼基本概率">
-      <calculatedColumnFormula>ROUND(1/IF(表1[[#This Row],[类型1234]]=2,MID(表1[[#This Row],[分值]],2,1)*10,IF(MID(表1[[#This Row],[分值]],1,1)="[",MID(表1[[#This Row],[分值]],2,FIND(",",表1[[#This Row],[分值]],1)-2)/2+MID(表1[[#This Row],[分值]],FIND(",",表1[[#This Row],[分值]],1)+1,LEN(表1[[#This Row],[分值]])-FIND(",",表1[[#This Row],[分值]],1)-1)/2,表1[[#This Row],[分值]])),6)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="修正参数A"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="用于场景"/>
+    <tableColumn id="1" name="编号" dataDxfId="2"/>
+    <tableColumn id="2" name="鱼类名称" dataDxfId="3"/>
+    <tableColumn id="3" name="名称" dataDxfId="4"/>
+    <tableColumn id="4" name="唯一id" dataDxfId="5"/>
+    <tableColumn id="5" name="体型" dataDxfId="6"/>
+    <tableColumn id="6" name="鱼ID" dataDxfId="7"/>
+    <tableColumn id="7" name="鱼类描述" dataDxfId="8"/>
+    <tableColumn id="8" name="特殊说明" dataDxfId="9"/>
+    <tableColumn id="9" name="模型ID" dataDxfId="10"/>
+    <tableColumn id="10" name="类型1234" dataDxfId="11"/>
+    <tableColumn id="11" name="奖金鱼名称图片" dataDxfId="12"/>
+    <tableColumn id="12" name="翻转" dataDxfId="13"/>
+    <tableColumn id="13" name="朝向调整" dataDxfId="14"/>
+    <tableColumn id="14" name="图鉴icon" dataDxfId="15"/>
+    <tableColumn id="15" name="移动动画" dataDxfId="16"/>
+    <tableColumn id="16" name="挂件，目前是鱼数组" dataDxfId="17"/>
+    <tableColumn id="17" name="挂件参数" dataDxfId="18"/>
+    <tableColumn id="18" name="体型缩放" dataDxfId="19"/>
+    <tableColumn id="19" name="刷新频率秒" dataDxfId="20"/>
+    <tableColumn id="20" name="条数概率" dataDxfId="21"/>
+    <tableColumn id="21" name="路径ID" dataDxfId="22"/>
+    <tableColumn id="22" name="死亡技能" dataDxfId="23"/>
+    <tableColumn id="23" name="初始技能" dataDxfId="24"/>
+    <tableColumn id="24" name="初始血量" dataDxfId="25"/>
+    <tableColumn id="25" name="分值" dataDxfId="26"/>
+    <tableColumn id="26" name="掉落包id组" dataDxfId="27"/>
+    <tableColumn id="27" name="移动速度" dataDxfId="28"/>
+    <tableColumn id="28" name="逃跑速度" dataDxfId="29"/>
+    <tableColumn id="29" name="鱼基本概率" dataDxfId="30"/>
+    <tableColumn id="30" name="修正参数A" dataDxfId="31"/>
+    <tableColumn id="31" name="用于场景" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AEB0E075-A618-4C78-BDFE-F0CD37F1DFFC}" name="表1_3" displayName="表1_3" ref="A3:AE26" totalsRowShown="0">
-  <autoFilter ref="A3:AE26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AE26" totalsRowShown="0">
+  <autoFilter ref="A3:AE26"/>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{DF1FECEF-F4DF-4B0C-B90D-EEF5B5F5B8D5}" name="编号"/>
-    <tableColumn id="2" xr3:uid="{32821485-5AF9-4EFB-B245-0B9963744F17}" name="鱼类名称"/>
-    <tableColumn id="3" xr3:uid="{30C59899-9057-4EFB-919B-77B41CAA87B6}" name="名称"/>
-    <tableColumn id="4" xr3:uid="{C66077CB-0B7C-4FCD-8C7D-142F57505D13}" name="唯一id"/>
-    <tableColumn id="5" xr3:uid="{203DB176-263F-491F-BD61-11376C505D9D}" name="体型"/>
-    <tableColumn id="6" xr3:uid="{CD18844B-7371-4F78-A876-1F9C6C407A28}" name="鱼ID"/>
-    <tableColumn id="7" xr3:uid="{FD357F64-A6F4-406A-8ED0-BA3718F25209}" name="鱼类描述"/>
-    <tableColumn id="8" xr3:uid="{0850BDBD-4573-4395-BDAF-99DC9395E774}" name="特殊说明"/>
-    <tableColumn id="9" xr3:uid="{CA0E9126-0644-4574-A7FC-720A18BA23AF}" name="模型ID"/>
-    <tableColumn id="10" xr3:uid="{9817C510-DDB7-4AD5-88A7-7536B5197410}" name="类型1234"/>
-    <tableColumn id="11" xr3:uid="{0CB8B796-E8E2-4121-BF98-7B68B71BE7D1}" name="奖金鱼名称图片"/>
-    <tableColumn id="12" xr3:uid="{42F475F7-B47C-4336-A8D1-3C3576C39236}" name="翻转"/>
-    <tableColumn id="13" xr3:uid="{3B12E1D2-8768-42FB-BD84-E197833251C6}" name="朝向调整"/>
-    <tableColumn id="14" xr3:uid="{24518490-9669-4754-BA69-BAA3B1441726}" name="图鉴icon"/>
-    <tableColumn id="15" xr3:uid="{821048E6-F0D2-4429-BB1A-977F2BF7B2A1}" name="移动动画"/>
-    <tableColumn id="16" xr3:uid="{006EF9A7-A0D7-4BE0-A35C-1440C22DFD77}" name="挂件，目前是鱼数组"/>
-    <tableColumn id="17" xr3:uid="{779C32CA-1085-40F9-96D6-73DE9D3F99C8}" name="挂件参数"/>
-    <tableColumn id="18" xr3:uid="{E668352D-246F-41F9-A93B-B3F7A23F041E}" name="体型缩放"/>
-    <tableColumn id="19" xr3:uid="{6EF56A61-7EDC-45E1-9EBF-B12FC76D0531}" name="刷新频率秒"/>
-    <tableColumn id="20" xr3:uid="{3B3F4E36-7ADE-4D83-95B1-0C2420D1BFA0}" name="条数概率"/>
-    <tableColumn id="21" xr3:uid="{266E7004-E516-4A55-9F19-3BC5A7FF64E4}" name="路径ID"/>
-    <tableColumn id="22" xr3:uid="{BD09F384-A551-4B24-A49F-5C66C4958BA6}" name="死亡技能"/>
-    <tableColumn id="23" xr3:uid="{DC001B7C-21AA-47DE-A14D-43D9FD293C80}" name="初始技能"/>
-    <tableColumn id="24" xr3:uid="{5BA1600E-B967-45E6-AEC2-E2C7F92E4167}" name="初始血量"/>
-    <tableColumn id="25" xr3:uid="{9AD8B600-E179-413E-94A8-5E84489F9088}" name="分值"/>
-    <tableColumn id="26" xr3:uid="{2A358E68-118C-460E-A711-05C3D1B480CF}" name="掉落包id组"/>
-    <tableColumn id="27" xr3:uid="{026C4B4E-8061-4D4E-8334-FB17F2F48C55}" name="移动速度"/>
-    <tableColumn id="28" xr3:uid="{E5498E00-2B74-495C-8578-E699718517AE}" name="逃跑速度"/>
-    <tableColumn id="29" xr3:uid="{A8ABBE83-CAC6-4A64-96FB-28F5EEFF5622}" name="鱼基本概率">
-      <calculatedColumnFormula>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="30" xr3:uid="{95A24FEA-D30A-4C2E-A4A9-2FCB980C3B25}" name="修正参数A"/>
-    <tableColumn id="31" xr3:uid="{51F86ED2-6C19-4328-B318-E5303FFA64D1}" name="用于场景"/>
+    <tableColumn id="1" name="编号" dataDxfId="33"/>
+    <tableColumn id="2" name="鱼类名称" dataDxfId="34"/>
+    <tableColumn id="3" name="名称" dataDxfId="35"/>
+    <tableColumn id="4" name="唯一id" dataDxfId="36"/>
+    <tableColumn id="5" name="体型" dataDxfId="37"/>
+    <tableColumn id="6" name="鱼ID" dataDxfId="38"/>
+    <tableColumn id="7" name="鱼类描述" dataDxfId="39"/>
+    <tableColumn id="8" name="特殊说明" dataDxfId="40"/>
+    <tableColumn id="9" name="模型ID" dataDxfId="41"/>
+    <tableColumn id="10" name="类型1234" dataDxfId="42"/>
+    <tableColumn id="11" name="奖金鱼名称图片" dataDxfId="43"/>
+    <tableColumn id="12" name="翻转" dataDxfId="44"/>
+    <tableColumn id="13" name="朝向调整" dataDxfId="45"/>
+    <tableColumn id="14" name="图鉴icon" dataDxfId="46"/>
+    <tableColumn id="15" name="移动动画" dataDxfId="47"/>
+    <tableColumn id="16" name="挂件，目前是鱼数组" dataDxfId="48"/>
+    <tableColumn id="17" name="挂件参数" dataDxfId="49"/>
+    <tableColumn id="18" name="体型缩放" dataDxfId="50"/>
+    <tableColumn id="19" name="刷新频率秒" dataDxfId="51"/>
+    <tableColumn id="20" name="条数概率" dataDxfId="52"/>
+    <tableColumn id="21" name="路径ID" dataDxfId="53"/>
+    <tableColumn id="22" name="死亡技能" dataDxfId="54"/>
+    <tableColumn id="23" name="初始技能" dataDxfId="55"/>
+    <tableColumn id="24" name="初始血量" dataDxfId="56"/>
+    <tableColumn id="25" name="分值" dataDxfId="57"/>
+    <tableColumn id="26" name="掉落包id组" dataDxfId="58"/>
+    <tableColumn id="27" name="移动速度" dataDxfId="59"/>
+    <tableColumn id="28" name="逃跑速度" dataDxfId="60"/>
+    <tableColumn id="29" name="鱼基本概率" dataDxfId="61"/>
+    <tableColumn id="30" name="修正参数A" dataDxfId="62"/>
+    <tableColumn id="31" name="用于场景" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1880,204 +2845,205 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="99.5" style="32" customWidth="1"/>
-    <col min="3" max="3" width="63.25" style="32" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="32"/>
+    <col min="1" max="1" width="16.125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="99.5" style="31" customWidth="1"/>
+    <col min="3" max="3" width="63.25" style="31" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34" t="s">
+    <row r="1" ht="16.5" spans="1:2">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+    <row r="2" ht="16.5" spans="1:2">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+    <row r="3" ht="16.5" spans="1:2">
+      <c r="A3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="42" t="s">
-        <v>285</v>
+    <row r="4" s="29" customFormat="1" ht="16.5" spans="1:3">
+      <c r="A4" s="36" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="37">
         <v>1</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>286</v>
+      <c r="C4" s="29" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" s="29" customFormat="1" ht="16.5" spans="1:3">
       <c r="A5" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>289</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>8</v>
+    <row r="6" s="30" customFormat="1" ht="16.5" spans="1:3">
+      <c r="A6" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>10</v>
+    <row r="7" s="30" customFormat="1" ht="16.5" spans="1:2">
+      <c r="A7" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
+    <row r="8" spans="1:2">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
+    <row r="9" spans="1:2">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
+    <row r="10" spans="1:2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
+    <row r="11" spans="1:2">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
+    <row r="12" spans="1:2">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
+    <row r="13" spans="1:2">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
+    <row r="14" spans="1:2">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
+    <row r="15" spans="1:2">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
+    <row r="16" spans="1:2">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
+    <row r="17" spans="1:2">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
+    <row r="18" spans="1:2">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
+    <row r="19" spans="1:2">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
+    <row r="20" spans="1:2">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
+    <row r="21" spans="1:2">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
+    <row r="22" spans="1:2">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
+    <row r="23" spans="1:2">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
+    <row r="24" spans="1:2">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
+    <row r="25" spans="1:2">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
+    <row r="26" spans="1:2">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="22" max="23" width="14.125" customWidth="1"/>
@@ -2088,626 +3054,632 @@
     <col min="28" max="28" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
-        <v>11</v>
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:31">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="12" customHeight="1" spans="1:31">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>41</v>
+      <c r="D2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="29" t="s">
+    <row r="3" s="3" customFormat="1" ht="16.5" spans="1:31">
+      <c r="A3" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="H3" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="J3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="K3" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="L3" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="M3" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="N3" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="O3" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="29" t="s">
+      <c r="P3" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="29" t="s">
+      <c r="Q3" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="W3" s="29" t="s">
+      <c r="R3" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="X3" s="29" t="s">
+      <c r="S3" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="Y3" s="29" t="s">
+      <c r="T3" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="Z3" s="29" t="s">
+      <c r="U3" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="AA3" s="29" t="s">
+      <c r="V3" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="AB3" s="29" t="s">
+      <c r="W3" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="AC3" s="29" t="s">
+      <c r="X3" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="AD3" s="29" t="s">
+      <c r="Y3" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="AE3" s="29" t="s">
+      <c r="Z3" s="28" t="s">
         <v>78</v>
+      </c>
+      <c r="AA3" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB3" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC3" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD3" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE3" s="28" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I2">
-    <cfRule type="top10" dxfId="4" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="1" rank="1"/>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0小_x000a_1中_x000a_2大_x000a_3超大" sqref="E3" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="初始血量默认为1，不能填写0" prompt="." sqref="X3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="只有一个技能的填写[100]" prompt="如果填写1个以上，填写[50,50]" sqref="V3:W3" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0代表鱼阵，用鱼阵配置" prompt="." sqref="I3" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0不翻转，1左右 2上下" prompt="." sqref="L3" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="捕获到大鱼，金币获得界面显示鱼名称" prompt="." sqref="K3" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="1普通，2技能，3boss，4奖金鱼，5宝箱鱼，6话费鱼" prompt="1普通，2技能，3boss，4奖金鱼，5宝箱鱼，6话费鱼" sqref="J3" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0无需调整，1实时调整朝向" prompt="." sqref="M3" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="填写0.8即变为原体型的0.8倍大小" prompt="." sqref="R3" xr:uid="{00000000-0002-0000-0100-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="数组第1个元素必须为动画第1帧" prompt="逗号之后填写整个移动动画的总帧数_x000a_[&quot;第一帧名称&quot;, 总帧数]" sqref="O3:P3" xr:uid="{00000000-0002-0000-0100-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="默认[],[x偏移,y偏移,自身缩放]" sqref="Q3" xr:uid="{00000000-0002-0000-0100-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="可以以范围刷新" prompt="[2,4]代表2~4秒刷新1次_x000a_[2]代表2秒刷新1次" sqref="S3" xr:uid="{00000000-0002-0000-0100-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="同一条鱼只出1只填写[100]" prompt="如果填写1只以上，总几率也必须为100，例如[50,50]" sqref="T3" xr:uid="{00000000-0002-0000-0100-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scene表配置ID" prompt="." sqref="U3" xr:uid="{00000000-0002-0000-0100-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="可填写为随机数字，填写随机数字时候要使用数组形式" prompt="[100,200]，意思为100~200之间。当使用随机数字时，应配合特殊动画。" sqref="Y3" xr:uid="{00000000-0002-0000-0100-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="每秒位移的像素数量" prompt="." sqref="AA3:AB3" xr:uid="{00000000-0002-0000-0100-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0小&#10;1中&#10;2大&#10;3超大" sqref="E3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="初始血量默认为1，不能填写0" prompt="." sqref="X3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="只有一个技能的填写[100]" prompt="如果填写1个以上，填写[50,50]" sqref="V3:W3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0代表鱼阵，用鱼阵配置" prompt="." sqref="I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0不翻转，1左右 2上下" prompt="." sqref="L3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="捕获到大鱼，金币获得界面显示鱼名称" prompt="." sqref="K3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="1普通，2技能，3boss，4奖金鱼，5宝箱鱼，6话费鱼" prompt="1普通，2技能，3boss，4奖金鱼，5宝箱鱼，6话费鱼" sqref="J3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0无需调整，1实时调整朝向" prompt="." sqref="M3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="数组第1个元素必须为动画第1帧" prompt="逗号之后填写整个移动动画的总帧数&#10;[&quot;第一帧名称&quot;, 总帧数]" sqref="O3:P3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="默认[],[x偏移,y偏移,自身缩放]" sqref="Q3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="填写0.8即变为原体型的0.8倍大小" prompt="." sqref="R3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="可以以范围刷新" prompt="[2,4]代表2~4秒刷新1次&#10;[2]代表2秒刷新1次" sqref="S3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="同一条鱼只出1只填写[100]" prompt="如果填写1只以上，总几率也必须为100，例如[50,50]" sqref="T3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scene表配置ID" prompt="." sqref="U3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="可填写为随机数字，填写随机数字时候要使用数组形式" prompt="[100,200]，意思为100~200之间。当使用随机数字时，应配合特殊动画。" sqref="Y3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="每秒位移的像素数量" prompt="." sqref="AA3:AB3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:31">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="12" customHeight="1" spans="1:31">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>41</v>
+      <c r="D2" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>13</v>
+    <row r="3" s="3" customFormat="1" ht="17.25" spans="1:31">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="4" ht="15" spans="1:31">
       <c r="A4" s="9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -2719,7 +3691,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H4" s="10">
         <v>0</v>
@@ -2731,7 +3703,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L4" s="11">
         <v>0</v>
@@ -2740,43 +3712,43 @@
         <v>0</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="R4" s="11">
         <v>1</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U4" s="11">
         <v>8</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X4" s="11">
         <v>1</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AA4" s="11">
         <v>20</v>
@@ -2786,24 +3758,24 @@
       </c>
       <c r="AC4" s="11">
         <f>ROUND(1/IF(表1[[#This Row],[类型1234]]=2,MID(表1[[#This Row],[分值]],2,1)*10,IF(MID(表1[[#This Row],[分值]],1,1)="[",MID(表1[[#This Row],[分值]],2,FIND(",",表1[[#This Row],[分值]],1)-2)/2+MID(表1[[#This Row],[分值]],FIND(",",表1[[#This Row],[分值]],1)+1,LEN(表1[[#This Row],[分值]])-FIND(",",表1[[#This Row],[分值]],1)-1)/2,表1[[#This Row],[分值]])),6)</f>
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AD4" s="11">
         <v>1</v>
       </c>
-      <c r="AE4" s="24">
+      <c r="AE4" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="5" ht="15" spans="1:31">
       <c r="A5" s="12" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D5" s="13">
         <v>2</v>
@@ -2815,7 +3787,7 @@
         <v>57</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H5" s="13">
         <v>0</v>
@@ -2827,7 +3799,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L5" s="14">
         <v>0</v>
@@ -2836,43 +3808,43 @@
         <v>0</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="R5" s="14">
         <v>1</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T5" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U5" s="14">
         <v>8</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X5" s="14">
         <v>1</v>
       </c>
       <c r="Y5" s="14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Z5" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AA5" s="14">
         <v>20</v>
@@ -2882,24 +3854,24 @@
       </c>
       <c r="AC5" s="11">
         <f>ROUND(1/IF(表1[[#This Row],[类型1234]]=2,MID(表1[[#This Row],[分值]],2,1)*10,IF(MID(表1[[#This Row],[分值]],1,1)="[",MID(表1[[#This Row],[分值]],2,FIND(",",表1[[#This Row],[分值]],1)-2)/2+MID(表1[[#This Row],[分值]],FIND(",",表1[[#This Row],[分值]],1)+1,LEN(表1[[#This Row],[分值]])-FIND(",",表1[[#This Row],[分值]],1)-1)/2,表1[[#This Row],[分值]])),6)</f>
-        <v>6.6670000000000002E-3</v>
+        <v>0.006667</v>
       </c>
       <c r="AD5" s="14">
         <v>1</v>
       </c>
-      <c r="AE5" s="25" t="s">
-        <v>102</v>
+      <c r="AE5" s="24" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:31">
       <c r="A6" s="15" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D6" s="16">
         <v>3</v>
@@ -2911,7 +3883,7 @@
         <v>52</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H6" s="16">
         <v>0</v>
@@ -2932,43 +3904,43 @@
         <v>0</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R6" s="17">
         <v>0.3</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U6" s="17">
         <v>223</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="X6" s="17">
         <v>1</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AA6" s="17">
         <v>400</v>
@@ -2983,19 +3955,19 @@
       <c r="AD6" s="17">
         <v>1</v>
       </c>
-      <c r="AE6" s="26" t="s">
-        <v>102</v>
+      <c r="AE6" s="25" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:31">
       <c r="A7" s="12" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D7" s="13">
         <v>4</v>
@@ -3007,7 +3979,7 @@
         <v>48</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H7" s="13">
         <v>0</v>
@@ -3019,7 +3991,7 @@
         <v>4</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L7" s="14">
         <v>0</v>
@@ -3028,43 +4000,43 @@
         <v>1</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R7" s="14">
         <v>1</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T7" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U7" s="14">
         <v>4</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X7" s="14">
         <v>1</v>
       </c>
       <c r="Y7" s="14" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Z7" s="14" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AA7" s="14">
         <v>49</v>
@@ -3074,24 +4046,24 @@
       </c>
       <c r="AC7" s="11">
         <f>ROUND(1/IF(表1[[#This Row],[类型1234]]=2,MID(表1[[#This Row],[分值]],2,1)*10,IF(MID(表1[[#This Row],[分值]],1,1)="[",MID(表1[[#This Row],[分值]],2,FIND(",",表1[[#This Row],[分值]],1)-2)/2+MID(表1[[#This Row],[分值]],FIND(",",表1[[#This Row],[分值]],1)+1,LEN(表1[[#This Row],[分值]])-FIND(",",表1[[#This Row],[分值]],1)-1)/2,表1[[#This Row],[分值]])),6)</f>
-        <v>1.8182E-2</v>
+        <v>0.018182</v>
       </c>
       <c r="AD7" s="14">
         <v>1</v>
       </c>
-      <c r="AE7" s="25" t="s">
-        <v>102</v>
+      <c r="AE7" s="24" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="8" ht="15" spans="1:31">
       <c r="A8" s="15" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D8" s="16">
         <v>5</v>
@@ -3103,7 +4075,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H8" s="16">
         <v>0</v>
@@ -3115,7 +4087,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L8" s="17">
         <v>0</v>
@@ -3124,43 +4096,43 @@
         <v>1</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R8" s="17">
         <v>1</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U8" s="17">
         <v>4</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X8" s="17">
         <v>1</v>
       </c>
       <c r="Y8" s="17" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Z8" s="17" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AA8" s="17">
         <v>49</v>
@@ -3170,24 +4142,24 @@
       </c>
       <c r="AC8" s="11">
         <f>ROUND(1/IF(表1[[#This Row],[类型1234]]=2,MID(表1[[#This Row],[分值]],2,1)*10,IF(MID(表1[[#This Row],[分值]],1,1)="[",MID(表1[[#This Row],[分值]],2,FIND(",",表1[[#This Row],[分值]],1)-2)/2+MID(表1[[#This Row],[分值]],FIND(",",表1[[#This Row],[分值]],1)+1,LEN(表1[[#This Row],[分值]])-FIND(",",表1[[#This Row],[分值]],1)-1)/2,表1[[#This Row],[分值]])),6)</f>
-        <v>2.2221999999999999E-2</v>
+        <v>0.022222</v>
       </c>
       <c r="AD8" s="17">
         <v>1</v>
       </c>
-      <c r="AE8" s="26" t="s">
-        <v>102</v>
+      <c r="AE8" s="25" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="9" ht="15" spans="1:31">
       <c r="A9" s="12" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D9" s="13">
         <v>6</v>
@@ -3199,7 +4171,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H9" s="13">
         <v>0</v>
@@ -3220,43 +4192,43 @@
         <v>1</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R9" s="14">
         <v>1.2</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T9" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U9" s="14">
         <v>2</v>
       </c>
       <c r="V9" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W9" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X9" s="14">
         <v>1</v>
       </c>
       <c r="Y9" s="14" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Z9" s="14" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AA9" s="14">
         <v>46</v>
@@ -3266,24 +4238,24 @@
       </c>
       <c r="AC9" s="11">
         <f>ROUND(1/IF(表1[[#This Row],[类型1234]]=2,MID(表1[[#This Row],[分值]],2,1)*10,IF(MID(表1[[#This Row],[分值]],1,1)="[",MID(表1[[#This Row],[分值]],2,FIND(",",表1[[#This Row],[分值]],1)-2)/2+MID(表1[[#This Row],[分值]],FIND(",",表1[[#This Row],[分值]],1)+1,LEN(表1[[#This Row],[分值]])-FIND(",",表1[[#This Row],[分值]],1)-1)/2,表1[[#This Row],[分值]])),6)</f>
-        <v>2.8570999999999999E-2</v>
+        <v>0.028571</v>
       </c>
       <c r="AD9" s="14">
         <v>1</v>
       </c>
-      <c r="AE9" s="25" t="s">
-        <v>137</v>
+      <c r="AE9" s="24" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="10" ht="15" spans="1:31">
       <c r="A10" s="15" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D10" s="16">
         <v>7</v>
@@ -3295,7 +4267,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H10" s="16">
         <v>0</v>
@@ -3307,7 +4279,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L10" s="17">
         <v>0</v>
@@ -3316,43 +4288,43 @@
         <v>1</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R10" s="17">
         <v>1</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T10" s="17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U10" s="17">
         <v>2</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W10" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X10" s="17">
         <v>1</v>
       </c>
       <c r="Y10" s="17" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Z10" s="17" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AA10" s="17">
         <v>52</v>
@@ -3362,24 +4334,24 @@
       </c>
       <c r="AC10" s="11">
         <f>ROUND(1/IF(表1[[#This Row],[类型1234]]=2,MID(表1[[#This Row],[分值]],2,1)*10,IF(MID(表1[[#This Row],[分值]],1,1)="[",MID(表1[[#This Row],[分值]],2,FIND(",",表1[[#This Row],[分值]],1)-2)/2+MID(表1[[#This Row],[分值]],FIND(",",表1[[#This Row],[分值]],1)+1,LEN(表1[[#This Row],[分值]])-FIND(",",表1[[#This Row],[分值]],1)-1)/2,表1[[#This Row],[分值]])),6)</f>
-        <v>2.8570999999999999E-2</v>
+        <v>0.028571</v>
       </c>
       <c r="AD10" s="17">
         <v>1</v>
       </c>
-      <c r="AE10" s="26" t="s">
-        <v>147</v>
+      <c r="AE10" s="25" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="11" ht="15" spans="1:31">
       <c r="A11" s="12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D11" s="13">
         <v>8</v>
@@ -3391,7 +4363,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>
@@ -3412,43 +4384,43 @@
         <v>1</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R11" s="14">
         <v>1</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T11" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U11" s="14">
         <v>2</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W11" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X11" s="14">
         <v>1</v>
       </c>
       <c r="Y11" s="14" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Z11" s="14" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AA11" s="14">
         <v>49</v>
@@ -3463,19 +4435,19 @@
       <c r="AD11" s="14">
         <v>1</v>
       </c>
-      <c r="AE11" s="25" t="s">
-        <v>147</v>
+      <c r="AE11" s="24" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="12" ht="15" spans="1:31">
       <c r="A12" s="15" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D12" s="16">
         <v>9</v>
@@ -3487,7 +4459,7 @@
         <v>33</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H12" s="16">
         <v>0</v>
@@ -3499,7 +4471,7 @@
         <v>4</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L12" s="17">
         <v>0</v>
@@ -3508,43 +4480,43 @@
         <v>0</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R12" s="17">
         <v>1</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U12" s="17">
         <v>2</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X12" s="17">
         <v>1</v>
       </c>
       <c r="Y12" s="17" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Z12" s="17" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AA12" s="17">
         <v>49</v>
@@ -3559,19 +4531,19 @@
       <c r="AD12" s="17">
         <v>1</v>
       </c>
-      <c r="AE12" s="26" t="s">
-        <v>102</v>
+      <c r="AE12" s="25" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="13" ht="15" spans="1:31">
       <c r="A13" s="12" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D13" s="13">
         <v>10</v>
@@ -3583,7 +4555,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H13" s="13">
         <v>0</v>
@@ -3604,43 +4576,43 @@
         <v>1</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R13" s="14">
         <v>1</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U13" s="14">
         <v>2</v>
       </c>
       <c r="V13" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W13" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X13" s="14">
         <v>1</v>
       </c>
       <c r="Y13" s="14" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Z13" s="14" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AA13" s="14">
         <v>52</v>
@@ -3655,19 +4627,19 @@
       <c r="AD13" s="14">
         <v>1</v>
       </c>
-      <c r="AE13" s="25" t="s">
-        <v>102</v>
+      <c r="AE13" s="24" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="14" ht="15" spans="1:31">
       <c r="A14" s="15" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D14" s="16">
         <v>11</v>
@@ -3679,7 +4651,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H14" s="16">
         <v>0</v>
@@ -3691,7 +4663,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L14" s="17">
         <v>0</v>
@@ -3700,43 +4672,43 @@
         <v>1</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R14" s="17">
         <v>1</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U14" s="17">
         <v>2</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X14" s="17">
         <v>1</v>
       </c>
       <c r="Y14" s="17" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Z14" s="17" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AA14" s="17">
         <v>46</v>
@@ -3751,19 +4723,19 @@
       <c r="AD14" s="17">
         <v>1</v>
       </c>
-      <c r="AE14" s="26" t="s">
-        <v>180</v>
+      <c r="AE14" s="25" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="15" ht="15" spans="1:31">
       <c r="A15" s="12" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D15" s="13">
         <v>12</v>
@@ -3775,7 +4747,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H15" s="13">
         <v>0</v>
@@ -3796,43 +4768,43 @@
         <v>0</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q15" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R15" s="14">
         <v>1</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T15" s="14" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="U15" s="14">
         <v>1</v>
       </c>
       <c r="V15" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W15" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X15" s="14">
         <v>1</v>
       </c>
       <c r="Y15" s="14" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Z15" s="14" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AA15" s="14">
         <v>57</v>
@@ -3842,24 +4814,24 @@
       </c>
       <c r="AC15" s="11">
         <f>ROUND(1/IF(表1[[#This Row],[类型1234]]=2,MID(表1[[#This Row],[分值]],2,1)*10,IF(MID(表1[[#This Row],[分值]],1,1)="[",MID(表1[[#This Row],[分值]],2,FIND(",",表1[[#This Row],[分值]],1)-2)/2+MID(表1[[#This Row],[分值]],FIND(",",表1[[#This Row],[分值]],1)+1,LEN(表1[[#This Row],[分值]])-FIND(",",表1[[#This Row],[分值]],1)-1)/2,表1[[#This Row],[分值]])),6)</f>
-        <v>6.6667000000000004E-2</v>
+        <v>0.066667</v>
       </c>
       <c r="AD15" s="14">
         <v>1</v>
       </c>
-      <c r="AE15" s="25" t="s">
-        <v>190</v>
+      <c r="AE15" s="24" t="s">
+        <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="16" ht="15" spans="1:31">
       <c r="A16" s="15" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D16" s="16">
         <v>13</v>
@@ -3871,7 +4843,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H16" s="16">
         <v>0</v>
@@ -3892,43 +4864,43 @@
         <v>1</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R16" s="17">
         <v>1</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="U16" s="17">
         <v>5</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X16" s="17">
         <v>1</v>
       </c>
       <c r="Y16" s="17" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Z16" s="17" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AA16" s="17">
         <v>57</v>
@@ -3943,19 +4915,19 @@
       <c r="AD16" s="17">
         <v>1</v>
       </c>
-      <c r="AE16" s="26" t="s">
-        <v>190</v>
+      <c r="AE16" s="25" t="s">
+        <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="17" ht="15" spans="1:31">
       <c r="A17" s="12" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D17" s="13">
         <v>14</v>
@@ -3967,7 +4939,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H17" s="13">
         <v>0</v>
@@ -3988,43 +4960,43 @@
         <v>1</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R17" s="14">
         <v>1</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="U17" s="14">
         <v>1</v>
       </c>
       <c r="V17" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W17" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X17" s="14">
         <v>1</v>
       </c>
       <c r="Y17" s="14" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Z17" s="14" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="AA17" s="14">
         <v>62</v>
@@ -4034,24 +5006,24 @@
       </c>
       <c r="AC17" s="11">
         <f>ROUND(1/IF(表1[[#This Row],[类型1234]]=2,MID(表1[[#This Row],[分值]],2,1)*10,IF(MID(表1[[#This Row],[分值]],1,1)="[",MID(表1[[#This Row],[分值]],2,FIND(",",表1[[#This Row],[分值]],1)-2)/2+MID(表1[[#This Row],[分值]],FIND(",",表1[[#This Row],[分值]],1)+1,LEN(表1[[#This Row],[分值]])-FIND(",",表1[[#This Row],[分值]],1)-1)/2,表1[[#This Row],[分值]])),6)</f>
-        <v>0.16666700000000001</v>
+        <v>0.166667</v>
       </c>
       <c r="AD17" s="14">
         <v>1</v>
       </c>
-      <c r="AE17" s="25" t="s">
-        <v>208</v>
+      <c r="AE17" s="24" t="s">
+        <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="18" ht="15" spans="1:31">
       <c r="A18" s="15" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D18" s="16">
         <v>15</v>
@@ -4063,7 +5035,7 @@
         <v>39</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H18" s="16">
         <v>0</v>
@@ -4084,43 +5056,43 @@
         <v>1</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R18" s="17">
         <v>1</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="U18" s="17">
         <v>6</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W18" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X18" s="17">
         <v>1</v>
       </c>
       <c r="Y18" s="17" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Z18" s="17" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="AA18" s="17">
         <v>59</v>
@@ -4130,24 +5102,24 @@
       </c>
       <c r="AC18" s="11">
         <f>ROUND(1/IF(表1[[#This Row],[类型1234]]=2,MID(表1[[#This Row],[分值]],2,1)*10,IF(MID(表1[[#This Row],[分值]],1,1)="[",MID(表1[[#This Row],[分值]],2,FIND(",",表1[[#This Row],[分值]],1)-2)/2+MID(表1[[#This Row],[分值]],FIND(",",表1[[#This Row],[分值]],1)+1,LEN(表1[[#This Row],[分值]])-FIND(",",表1[[#This Row],[分值]],1)-1)/2,表1[[#This Row],[分值]])),6)</f>
-        <v>0.16666700000000001</v>
+        <v>0.166667</v>
       </c>
       <c r="AD18" s="17">
         <v>1</v>
       </c>
-      <c r="AE18" s="26" t="s">
-        <v>180</v>
+      <c r="AE18" s="25" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="19" ht="15" spans="1:31">
       <c r="A19" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D19" s="13">
         <v>16</v>
@@ -4159,10 +5131,10 @@
         <v>19</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="I19" s="14">
         <v>19</v>
@@ -4171,7 +5143,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="L19" s="14">
         <v>0</v>
@@ -4180,43 +5152,43 @@
         <v>0</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R19" s="14">
         <v>1</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T19" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U19" s="14">
         <v>1</v>
       </c>
       <c r="V19" s="14" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="W19" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X19" s="14">
         <v>1</v>
       </c>
       <c r="Y19" s="14" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Z19" s="14" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AA19" s="14">
         <v>64</v>
@@ -4231,19 +5203,19 @@
       <c r="AD19" s="14">
         <v>0.5</v>
       </c>
-      <c r="AE19" s="25" t="s">
-        <v>102</v>
+      <c r="AE19" s="24" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="20" ht="15" spans="1:31">
       <c r="A20" s="15" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D20" s="17">
         <v>17</v>
@@ -4255,10 +5227,10 @@
         <v>17</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I20" s="17">
         <v>17</v>
@@ -4276,43 +5248,43 @@
         <v>1</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R20" s="17">
         <v>1</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U20" s="17">
         <v>8</v>
       </c>
       <c r="V20" s="17" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="W20" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X20" s="17">
         <v>1</v>
       </c>
       <c r="Y20" s="17" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Z20" s="17" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AA20" s="17">
         <v>59</v>
@@ -4322,24 +5294,24 @@
       </c>
       <c r="AC20" s="11">
         <f>ROUND(1/IF(表1[[#This Row],[类型1234]]=2,MID(表1[[#This Row],[分值]],2,1)*10,IF(MID(表1[[#This Row],[分值]],1,1)="[",MID(表1[[#This Row],[分值]],2,FIND(",",表1[[#This Row],[分值]],1)-2)/2+MID(表1[[#This Row],[分值]],FIND(",",表1[[#This Row],[分值]],1)+1,LEN(表1[[#This Row],[分值]])-FIND(",",表1[[#This Row],[分值]],1)-1)/2,表1[[#This Row],[分值]])),6)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>0.0125</v>
       </c>
       <c r="AD20" s="17">
         <v>0.2</v>
       </c>
-      <c r="AE20" s="26" t="s">
-        <v>102</v>
+      <c r="AE20" s="25" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="21" ht="15" spans="1:31">
       <c r="A21" s="12" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D21" s="13">
         <v>18</v>
@@ -4351,7 +5323,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H21" s="13">
         <v>0</v>
@@ -4372,43 +5344,43 @@
         <v>1</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q21" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R21" s="14">
         <v>1.2</v>
       </c>
       <c r="S21" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T21" s="14" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="U21" s="14">
         <v>6</v>
       </c>
       <c r="V21" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W21" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X21" s="14">
         <v>1</v>
       </c>
       <c r="Y21" s="14" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Z21" s="14" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="AA21" s="14">
         <v>73</v>
@@ -4423,19 +5395,19 @@
       <c r="AD21" s="14">
         <v>1</v>
       </c>
-      <c r="AE21" s="25" t="s">
-        <v>243</v>
+      <c r="AE21" s="24" t="s">
+        <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="22" ht="15" spans="1:31">
       <c r="A22" s="15" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D22" s="16">
         <v>19</v>
@@ -4447,7 +5419,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H22" s="16">
         <v>0</v>
@@ -4468,43 +5440,43 @@
         <v>1</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R22" s="17">
         <v>0.75</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T22" s="17" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="U22" s="17">
         <v>1</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W22" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X22" s="17">
         <v>1</v>
       </c>
       <c r="Y22" s="17" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Z22" s="17" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AA22" s="17">
         <v>62</v>
@@ -4519,19 +5491,19 @@
       <c r="AD22" s="17">
         <v>1</v>
       </c>
-      <c r="AE22" s="26" t="s">
-        <v>180</v>
+      <c r="AE22" s="25" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="23" ht="15" spans="1:31">
       <c r="A23" s="12" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D23" s="13">
         <v>20</v>
@@ -4543,7 +5515,7 @@
         <v>14</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H23" s="13">
         <v>0</v>
@@ -4564,43 +5536,43 @@
         <v>1</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R23" s="14">
         <v>0.9</v>
       </c>
       <c r="S23" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T23" s="14" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="U23" s="14">
         <v>0</v>
       </c>
       <c r="V23" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W23" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X23" s="14">
         <v>1</v>
       </c>
       <c r="Y23" s="14" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Z23" s="14" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AA23" s="14">
         <v>66</v>
@@ -4615,19 +5587,19 @@
       <c r="AD23" s="14">
         <v>1</v>
       </c>
-      <c r="AE23" s="25" t="s">
-        <v>243</v>
+      <c r="AE23" s="24" t="s">
+        <v>249</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="24" ht="15" spans="1:31">
       <c r="A24" s="15" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D24" s="16">
         <v>21</v>
@@ -4639,7 +5611,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H24" s="16">
         <v>0</v>
@@ -4660,43 +5632,43 @@
         <v>1</v>
       </c>
       <c r="N24" s="17" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="P24" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R24" s="17">
         <v>0.9</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="U24" s="17">
         <v>6</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X24" s="17">
         <v>1</v>
       </c>
       <c r="Y24" s="17" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Z24" s="17" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AA24" s="17">
         <v>81</v>
@@ -4711,19 +5683,19 @@
       <c r="AD24" s="17">
         <v>1</v>
       </c>
-      <c r="AE24" s="26" t="s">
-        <v>190</v>
+      <c r="AE24" s="25" t="s">
+        <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:31">
       <c r="A25" s="12" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D25" s="13">
         <v>22</v>
@@ -4735,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H25" s="13">
         <v>0</v>
@@ -4756,43 +5728,43 @@
         <v>1</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q25" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R25" s="14">
         <v>0.9</v>
       </c>
       <c r="S25" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T25" s="14" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="U25" s="14">
         <v>0</v>
       </c>
       <c r="V25" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W25" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X25" s="14">
         <v>1</v>
       </c>
       <c r="Y25" s="14" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Z25" s="14" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AA25" s="14">
         <v>73</v>
@@ -4807,19 +5779,19 @@
       <c r="AD25" s="14">
         <v>1</v>
       </c>
-      <c r="AE25" s="25" t="s">
-        <v>180</v>
+      <c r="AE25" s="24" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:31">
       <c r="A26" s="18" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D26" s="19">
         <v>23</v>
@@ -4831,7 +5803,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H26" s="19">
         <v>0</v>
@@ -4852,43 +5824,43 @@
         <v>1</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="P26" s="20" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q26" s="20" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R26" s="20">
         <v>1</v>
       </c>
       <c r="S26" s="20" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T26" s="20" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="U26" s="20">
         <v>0</v>
       </c>
       <c r="V26" s="20" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W26" s="20" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X26" s="20">
         <v>1</v>
       </c>
       <c r="Y26" s="20" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Z26" s="20" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="AA26" s="20">
         <v>81</v>
@@ -4903,351 +5875,352 @@
       <c r="AD26" s="20">
         <v>1</v>
       </c>
-      <c r="AE26" s="27" t="s">
-        <v>180</v>
+      <c r="AE26" s="26" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I2">
-    <cfRule type="top10" dxfId="2" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="1" rank="1"/>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0小_x000a_1中_x000a_2大_x000a_3超大" sqref="E3" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="初始血量默认为1，不能填写0" prompt="." sqref="X3" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="只有一个技能的填写[100]" prompt="如果填写1个以上，填写[50,50]" sqref="V3:W3" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0代表鱼阵，用鱼阵配置" prompt="." sqref="I3" xr:uid="{00000000-0002-0000-0200-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0不翻转，1左右 2上下" prompt="." sqref="L3" xr:uid="{00000000-0002-0000-0200-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="捕获到大鱼，金币获得界面显示鱼名称" prompt="." sqref="K3" xr:uid="{00000000-0002-0000-0200-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="1普通，2技能，3boss，4奖金鱼，5宝箱鱼，6话费鱼" prompt="1普通，2技能，3boss，4奖金鱼，5宝箱鱼，6话费鱼" sqref="J3" xr:uid="{00000000-0002-0000-0200-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0无需调整，1实时调整朝向" prompt="." sqref="M3" xr:uid="{00000000-0002-0000-0200-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="填写0.8即变为原体型的0.8倍大小" prompt="." sqref="R3" xr:uid="{00000000-0002-0000-0200-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="数组第1个元素必须为动画第1帧" prompt="逗号之后填写整个移动动画的总帧数_x000a_[&quot;第一帧名称&quot;, 总帧数]" sqref="O3:P3" xr:uid="{00000000-0002-0000-0200-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="默认[],[x偏移,y偏移,自身缩放]" sqref="Q3" xr:uid="{00000000-0002-0000-0200-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="可以以范围刷新" prompt="[2,4]代表2~4秒刷新1次_x000a_[2]代表2秒刷新1次" sqref="S3" xr:uid="{00000000-0002-0000-0200-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="同一条鱼只出1只填写[100]" prompt="如果填写1只以上，总几率也必须为100，例如[50,50]" sqref="T3" xr:uid="{00000000-0002-0000-0200-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scene表配置ID" prompt="." sqref="U3" xr:uid="{00000000-0002-0000-0200-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="可填写为随机数字，填写随机数字时候要使用数组形式" prompt="[100,200]，意思为100~200之间。当使用随机数字时，应配合特殊动画。" sqref="Y3" xr:uid="{00000000-0002-0000-0200-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="每秒位移的像素数量" prompt="." sqref="AA3:AB3" xr:uid="{00000000-0002-0000-0200-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0小&#10;1中&#10;2大&#10;3超大" sqref="E3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="初始血量默认为1，不能填写0" prompt="." sqref="X3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="只有一个技能的填写[100]" prompt="如果填写1个以上，填写[50,50]" sqref="V3:W3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0代表鱼阵，用鱼阵配置" prompt="." sqref="I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0不翻转，1左右 2上下" prompt="." sqref="L3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="捕获到大鱼，金币获得界面显示鱼名称" prompt="." sqref="K3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="1普通，2技能，3boss，4奖金鱼，5宝箱鱼，6话费鱼" prompt="1普通，2技能，3boss，4奖金鱼，5宝箱鱼，6话费鱼" sqref="J3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0无需调整，1实时调整朝向" prompt="." sqref="M3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="数组第1个元素必须为动画第1帧" prompt="逗号之后填写整个移动动画的总帧数&#10;[&quot;第一帧名称&quot;, 总帧数]" sqref="O3:P3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="默认[],[x偏移,y偏移,自身缩放]" sqref="Q3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="填写0.8即变为原体型的0.8倍大小" prompt="." sqref="R3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="可以以范围刷新" prompt="[2,4]代表2~4秒刷新1次&#10;[2]代表2秒刷新1次" sqref="S3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="同一条鱼只出1只填写[100]" prompt="如果填写1只以上，总几率也必须为100，例如[50,50]" sqref="T3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scene表配置ID" prompt="." sqref="U3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="可填写为随机数字，填写随机数字时候要使用数组形式" prompt="[100,200]，意思为100~200之间。当使用随机数字时，应配合特殊动画。" sqref="Y3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="每秒位移的像素数量" prompt="." sqref="AA3:AB3"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C002ED-B573-4CA5-A362-486F3AEB7DFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AE26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:31">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="12" customHeight="1" spans="1:31">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>41</v>
+      <c r="D2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>13</v>
+    <row r="3" s="3" customFormat="1" ht="17.25" spans="1:31">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
-        <v>287</v>
+    <row r="4" ht="15" spans="1:31">
+      <c r="A4" s="9" t="s">
+        <v>290</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -5259,7 +6232,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H4" s="10">
         <v>0</v>
@@ -5271,7 +6244,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L4" s="11">
         <v>0</v>
@@ -5280,43 +6253,43 @@
         <v>0</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="R4" s="11">
         <v>1</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U4" s="11">
         <v>8</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X4" s="11">
         <v>1</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AA4" s="11">
         <v>20</v>
@@ -5326,24 +6299,24 @@
       </c>
       <c r="AC4" s="11">
         <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AD4" s="11">
         <v>1</v>
       </c>
-      <c r="AE4" s="24">
+      <c r="AE4" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="15" spans="1:31">
       <c r="A5" s="12" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D5" s="13">
         <v>2</v>
@@ -5355,7 +6328,7 @@
         <v>57</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H5" s="13">
         <v>0</v>
@@ -5367,7 +6340,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L5" s="14">
         <v>0</v>
@@ -5376,43 +6349,43 @@
         <v>0</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="R5" s="14">
         <v>1</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T5" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U5" s="14">
         <v>8</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X5" s="14">
         <v>1</v>
       </c>
       <c r="Y5" s="14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Z5" s="14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AA5" s="14">
         <v>20</v>
@@ -5422,24 +6395,24 @@
       </c>
       <c r="AC5" s="11">
         <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>6.6670000000000002E-3</v>
+        <v>0.006667</v>
       </c>
       <c r="AD5" s="14">
         <v>1</v>
       </c>
-      <c r="AE5" s="25" t="s">
-        <v>102</v>
+      <c r="AE5" s="24" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="15" spans="1:31">
       <c r="A6" s="15" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D6" s="16">
         <v>3</v>
@@ -5451,7 +6424,7 @@
         <v>52</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H6" s="16">
         <v>0</v>
@@ -5472,43 +6445,43 @@
         <v>0</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R6" s="17">
         <v>0.3</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U6" s="17">
         <v>223</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="X6" s="17">
         <v>1</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AA6" s="17">
         <v>400</v>
@@ -5523,19 +6496,19 @@
       <c r="AD6" s="17">
         <v>1</v>
       </c>
-      <c r="AE6" s="26" t="s">
-        <v>102</v>
+      <c r="AE6" s="25" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="15" spans="1:31">
       <c r="A7" s="12" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D7" s="13">
         <v>4</v>
@@ -5547,7 +6520,7 @@
         <v>48</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H7" s="13">
         <v>0</v>
@@ -5559,7 +6532,7 @@
         <v>4</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L7" s="14">
         <v>0</v>
@@ -5568,43 +6541,43 @@
         <v>1</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R7" s="14">
         <v>1</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T7" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U7" s="14">
         <v>4</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X7" s="14">
         <v>1</v>
       </c>
       <c r="Y7" s="14" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Z7" s="14" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AA7" s="14">
         <v>49</v>
@@ -5614,24 +6587,24 @@
       </c>
       <c r="AC7" s="11">
         <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>1.8182E-2</v>
+        <v>0.018182</v>
       </c>
       <c r="AD7" s="14">
         <v>1</v>
       </c>
-      <c r="AE7" s="25" t="s">
-        <v>102</v>
+      <c r="AE7" s="24" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="15" spans="1:31">
       <c r="A8" s="15" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D8" s="16">
         <v>5</v>
@@ -5643,7 +6616,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H8" s="16">
         <v>0</v>
@@ -5655,7 +6628,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L8" s="17">
         <v>0</v>
@@ -5664,43 +6637,43 @@
         <v>1</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R8" s="17">
         <v>1</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U8" s="17">
         <v>4</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X8" s="17">
         <v>1</v>
       </c>
       <c r="Y8" s="17" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Z8" s="17" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AA8" s="17">
         <v>49</v>
@@ -5710,24 +6683,24 @@
       </c>
       <c r="AC8" s="11">
         <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>2.2221999999999999E-2</v>
+        <v>0.022222</v>
       </c>
       <c r="AD8" s="17">
         <v>1</v>
       </c>
-      <c r="AE8" s="26" t="s">
-        <v>102</v>
+      <c r="AE8" s="25" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="15" spans="1:31">
       <c r="A9" s="12" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D9" s="13">
         <v>6</v>
@@ -5739,7 +6712,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H9" s="13">
         <v>0</v>
@@ -5760,43 +6733,43 @@
         <v>1</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R9" s="14">
         <v>1.2</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T9" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U9" s="14">
         <v>2</v>
       </c>
       <c r="V9" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W9" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X9" s="14">
         <v>1</v>
       </c>
       <c r="Y9" s="14" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Z9" s="14" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AA9" s="14">
         <v>46</v>
@@ -5806,24 +6779,24 @@
       </c>
       <c r="AC9" s="11">
         <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>2.8570999999999999E-2</v>
+        <v>0.028571</v>
       </c>
       <c r="AD9" s="14">
         <v>1</v>
       </c>
-      <c r="AE9" s="25" t="s">
-        <v>137</v>
+      <c r="AE9" s="24" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="15" spans="1:31">
       <c r="A10" s="15" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D10" s="16">
         <v>7</v>
@@ -5835,7 +6808,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H10" s="16">
         <v>0</v>
@@ -5847,7 +6820,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L10" s="17">
         <v>0</v>
@@ -5856,43 +6829,43 @@
         <v>1</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R10" s="17">
         <v>1</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T10" s="17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U10" s="17">
         <v>2</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W10" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X10" s="17">
         <v>1</v>
       </c>
       <c r="Y10" s="17" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Z10" s="17" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AA10" s="17">
         <v>52</v>
@@ -5902,24 +6875,24 @@
       </c>
       <c r="AC10" s="11">
         <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>2.8570999999999999E-2</v>
+        <v>0.028571</v>
       </c>
       <c r="AD10" s="17">
         <v>1</v>
       </c>
-      <c r="AE10" s="26" t="s">
-        <v>147</v>
+      <c r="AE10" s="25" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="15" spans="1:31">
       <c r="A11" s="12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D11" s="13">
         <v>8</v>
@@ -5931,7 +6904,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>
@@ -5952,43 +6925,43 @@
         <v>1</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R11" s="14">
         <v>1</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T11" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U11" s="14">
         <v>2</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W11" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X11" s="14">
         <v>1</v>
       </c>
       <c r="Y11" s="14" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Z11" s="14" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AA11" s="14">
         <v>49</v>
@@ -6003,19 +6976,19 @@
       <c r="AD11" s="14">
         <v>1</v>
       </c>
-      <c r="AE11" s="25" t="s">
-        <v>147</v>
+      <c r="AE11" s="24" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="15" spans="1:31">
       <c r="A12" s="15" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D12" s="16">
         <v>9</v>
@@ -6027,7 +7000,7 @@
         <v>33</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H12" s="16">
         <v>0</v>
@@ -6039,7 +7012,7 @@
         <v>4</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L12" s="17">
         <v>0</v>
@@ -6048,43 +7021,43 @@
         <v>0</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R12" s="17">
         <v>1</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U12" s="17">
         <v>2</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X12" s="17">
         <v>1</v>
       </c>
       <c r="Y12" s="17" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Z12" s="17" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AA12" s="17">
         <v>49</v>
@@ -6099,19 +7072,19 @@
       <c r="AD12" s="17">
         <v>1</v>
       </c>
-      <c r="AE12" s="26" t="s">
-        <v>102</v>
+      <c r="AE12" s="25" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="15" spans="1:31">
       <c r="A13" s="12" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D13" s="13">
         <v>10</v>
@@ -6123,7 +7096,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H13" s="13">
         <v>0</v>
@@ -6144,43 +7117,43 @@
         <v>1</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R13" s="14">
         <v>1</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U13" s="14">
         <v>2</v>
       </c>
       <c r="V13" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W13" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X13" s="14">
         <v>1</v>
       </c>
       <c r="Y13" s="14" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Z13" s="14" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AA13" s="14">
         <v>52</v>
@@ -6195,19 +7168,19 @@
       <c r="AD13" s="14">
         <v>1</v>
       </c>
-      <c r="AE13" s="25" t="s">
-        <v>102</v>
+      <c r="AE13" s="24" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="15" spans="1:31">
       <c r="A14" s="15" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D14" s="16">
         <v>11</v>
@@ -6219,7 +7192,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H14" s="16">
         <v>0</v>
@@ -6231,7 +7204,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L14" s="17">
         <v>0</v>
@@ -6240,43 +7213,43 @@
         <v>1</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R14" s="17">
         <v>1</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U14" s="17">
         <v>2</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X14" s="17">
         <v>1</v>
       </c>
       <c r="Y14" s="17" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Z14" s="17" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AA14" s="17">
         <v>46</v>
@@ -6291,19 +7264,19 @@
       <c r="AD14" s="17">
         <v>1</v>
       </c>
-      <c r="AE14" s="26" t="s">
-        <v>180</v>
+      <c r="AE14" s="25" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="15" spans="1:31">
       <c r="A15" s="12" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D15" s="13">
         <v>12</v>
@@ -6315,7 +7288,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H15" s="13">
         <v>0</v>
@@ -6336,43 +7309,43 @@
         <v>0</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q15" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R15" s="14">
         <v>1</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T15" s="14" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="U15" s="14">
         <v>1</v>
       </c>
       <c r="V15" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W15" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X15" s="14">
         <v>1</v>
       </c>
       <c r="Y15" s="14" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Z15" s="14" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AA15" s="14">
         <v>57</v>
@@ -6382,24 +7355,24 @@
       </c>
       <c r="AC15" s="11">
         <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>6.6667000000000004E-2</v>
+        <v>0.066667</v>
       </c>
       <c r="AD15" s="14">
         <v>1</v>
       </c>
-      <c r="AE15" s="25" t="s">
-        <v>190</v>
+      <c r="AE15" s="24" t="s">
+        <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="15" spans="1:31">
       <c r="A16" s="15" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D16" s="16">
         <v>13</v>
@@ -6411,7 +7384,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H16" s="16">
         <v>0</v>
@@ -6432,43 +7405,43 @@
         <v>1</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R16" s="17">
         <v>1</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="U16" s="17">
         <v>5</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X16" s="17">
         <v>1</v>
       </c>
       <c r="Y16" s="17" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Z16" s="17" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AA16" s="17">
         <v>57</v>
@@ -6483,19 +7456,19 @@
       <c r="AD16" s="17">
         <v>1</v>
       </c>
-      <c r="AE16" s="26" t="s">
-        <v>190</v>
+      <c r="AE16" s="25" t="s">
+        <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="15" spans="1:31">
       <c r="A17" s="12" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D17" s="13">
         <v>14</v>
@@ -6507,7 +7480,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H17" s="13">
         <v>0</v>
@@ -6528,43 +7501,43 @@
         <v>1</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R17" s="14">
         <v>1</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="U17" s="14">
         <v>1</v>
       </c>
       <c r="V17" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W17" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X17" s="14">
         <v>1</v>
       </c>
       <c r="Y17" s="14" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Z17" s="14" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="AA17" s="14">
         <v>62</v>
@@ -6574,24 +7547,24 @@
       </c>
       <c r="AC17" s="11">
         <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.16666700000000001</v>
+        <v>0.166667</v>
       </c>
       <c r="AD17" s="14">
         <v>1</v>
       </c>
-      <c r="AE17" s="25" t="s">
-        <v>208</v>
+      <c r="AE17" s="24" t="s">
+        <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="15" spans="1:31">
       <c r="A18" s="15" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D18" s="16">
         <v>15</v>
@@ -6603,7 +7576,7 @@
         <v>39</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H18" s="16">
         <v>0</v>
@@ -6624,43 +7597,43 @@
         <v>1</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R18" s="17">
         <v>1</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="U18" s="17">
         <v>6</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W18" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X18" s="17">
         <v>1</v>
       </c>
       <c r="Y18" s="17" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Z18" s="17" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="AA18" s="17">
         <v>59</v>
@@ -6670,24 +7643,24 @@
       </c>
       <c r="AC18" s="11">
         <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.16666700000000001</v>
+        <v>0.166667</v>
       </c>
       <c r="AD18" s="17">
         <v>1</v>
       </c>
-      <c r="AE18" s="26" t="s">
-        <v>180</v>
+      <c r="AE18" s="25" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="15" spans="1:31">
       <c r="A19" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D19" s="13">
         <v>16</v>
@@ -6699,10 +7672,10 @@
         <v>19</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="I19" s="14">
         <v>19</v>
@@ -6711,7 +7684,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="L19" s="14">
         <v>0</v>
@@ -6720,43 +7693,43 @@
         <v>0</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R19" s="14">
         <v>1</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T19" s="14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U19" s="14">
         <v>1</v>
       </c>
       <c r="V19" s="14" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="W19" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X19" s="14">
         <v>1</v>
       </c>
       <c r="Y19" s="14" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Z19" s="14" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AA19" s="14">
         <v>64</v>
@@ -6771,19 +7744,19 @@
       <c r="AD19" s="14">
         <v>0.5</v>
       </c>
-      <c r="AE19" s="25" t="s">
-        <v>102</v>
+      <c r="AE19" s="24" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="15" spans="1:31">
       <c r="A20" s="15" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D20" s="17">
         <v>17</v>
@@ -6795,10 +7768,10 @@
         <v>17</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I20" s="17">
         <v>17</v>
@@ -6816,43 +7789,43 @@
         <v>1</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R20" s="17">
         <v>1</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U20" s="17">
         <v>8</v>
       </c>
       <c r="V20" s="17" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="W20" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X20" s="17">
         <v>1</v>
       </c>
       <c r="Y20" s="17" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Z20" s="17" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AA20" s="17">
         <v>59</v>
@@ -6862,24 +7835,24 @@
       </c>
       <c r="AC20" s="11">
         <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>1.2500000000000001E-2</v>
+        <v>0.0125</v>
       </c>
       <c r="AD20" s="17">
         <v>0.2</v>
       </c>
-      <c r="AE20" s="26" t="s">
-        <v>102</v>
+      <c r="AE20" s="25" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="15" spans="1:31">
       <c r="A21" s="12" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D21" s="13">
         <v>18</v>
@@ -6891,7 +7864,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H21" s="13">
         <v>0</v>
@@ -6912,43 +7885,43 @@
         <v>1</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q21" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R21" s="14">
         <v>1.2</v>
       </c>
       <c r="S21" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T21" s="14" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="U21" s="14">
         <v>6</v>
       </c>
       <c r="V21" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W21" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X21" s="14">
         <v>1</v>
       </c>
       <c r="Y21" s="14" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Z21" s="14" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="AA21" s="14">
         <v>73</v>
@@ -6963,19 +7936,19 @@
       <c r="AD21" s="14">
         <v>1</v>
       </c>
-      <c r="AE21" s="25" t="s">
-        <v>243</v>
+      <c r="AE21" s="24" t="s">
+        <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="15" spans="1:31">
       <c r="A22" s="15" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D22" s="16">
         <v>19</v>
@@ -6987,7 +7960,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H22" s="16">
         <v>0</v>
@@ -7008,43 +7981,43 @@
         <v>1</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R22" s="17">
         <v>0.75</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T22" s="17" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="U22" s="17">
         <v>1</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W22" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X22" s="17">
         <v>1</v>
       </c>
       <c r="Y22" s="17" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Z22" s="17" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AA22" s="17">
         <v>62</v>
@@ -7059,19 +8032,19 @@
       <c r="AD22" s="17">
         <v>1</v>
       </c>
-      <c r="AE22" s="26" t="s">
-        <v>180</v>
+      <c r="AE22" s="25" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="15" spans="1:31">
       <c r="A23" s="12" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D23" s="13">
         <v>20</v>
@@ -7083,7 +8056,7 @@
         <v>14</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H23" s="13">
         <v>0</v>
@@ -7104,43 +8077,43 @@
         <v>1</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R23" s="14">
         <v>0.9</v>
       </c>
       <c r="S23" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T23" s="14" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="U23" s="14">
         <v>0</v>
       </c>
       <c r="V23" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W23" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X23" s="14">
         <v>1</v>
       </c>
       <c r="Y23" s="14" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Z23" s="14" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AA23" s="14">
         <v>66</v>
@@ -7155,19 +8128,19 @@
       <c r="AD23" s="14">
         <v>1</v>
       </c>
-      <c r="AE23" s="25" t="s">
-        <v>243</v>
+      <c r="AE23" s="24" t="s">
+        <v>249</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" ht="15" spans="1:31">
       <c r="A24" s="15" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D24" s="16">
         <v>21</v>
@@ -7179,7 +8152,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H24" s="16">
         <v>0</v>
@@ -7200,43 +8173,43 @@
         <v>1</v>
       </c>
       <c r="N24" s="17" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="P24" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R24" s="17">
         <v>0.9</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="U24" s="17">
         <v>6</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X24" s="17">
         <v>1</v>
       </c>
       <c r="Y24" s="17" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Z24" s="17" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AA24" s="17">
         <v>81</v>
@@ -7251,19 +8224,19 @@
       <c r="AD24" s="17">
         <v>1</v>
       </c>
-      <c r="AE24" s="26" t="s">
-        <v>190</v>
+      <c r="AE24" s="25" t="s">
+        <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" ht="15" spans="1:31">
       <c r="A25" s="12" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D25" s="13">
         <v>22</v>
@@ -7275,7 +8248,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H25" s="13">
         <v>0</v>
@@ -7296,43 +8269,43 @@
         <v>1</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q25" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R25" s="14">
         <v>0.9</v>
       </c>
       <c r="S25" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T25" s="14" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="U25" s="14">
         <v>0</v>
       </c>
       <c r="V25" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W25" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X25" s="14">
         <v>1</v>
       </c>
       <c r="Y25" s="14" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Z25" s="14" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AA25" s="14">
         <v>73</v>
@@ -7347,19 +8320,19 @@
       <c r="AD25" s="14">
         <v>1</v>
       </c>
-      <c r="AE25" s="25" t="s">
-        <v>180</v>
+      <c r="AE25" s="24" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="14.25" spans="1:31">
       <c r="A26" s="18" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D26" s="19">
         <v>23</v>
@@ -7371,7 +8344,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H26" s="19">
         <v>0</v>
@@ -7392,43 +8365,43 @@
         <v>1</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="P26" s="20" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q26" s="20" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R26" s="20">
         <v>1</v>
       </c>
       <c r="S26" s="20" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="T26" s="20" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="U26" s="20">
         <v>0</v>
       </c>
       <c r="V26" s="20" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="W26" s="20" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X26" s="20">
         <v>1</v>
       </c>
       <c r="Y26" s="20" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Z26" s="20" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="AA26" s="20">
         <v>81</v>
@@ -7443,40 +8416,40 @@
       <c r="AD26" s="20">
         <v>1</v>
       </c>
-      <c r="AE26" s="27" t="s">
-        <v>180</v>
+      <c r="AE26" s="26" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I2">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="1" rank="1"/>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="每秒位移的像素数量" prompt="." sqref="AA3:AB3" xr:uid="{95F24089-5102-42C1-A191-58854B4385FB}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="可填写为随机数字，填写随机数字时候要使用数组形式" prompt="[100,200]，意思为100~200之间。当使用随机数字时，应配合特殊动画。" sqref="Y3" xr:uid="{75B1AC37-B923-4F7F-8F55-5E1485D4614C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scene表配置ID" prompt="." sqref="U3" xr:uid="{E9A28005-8529-4664-BBAB-826439F80BC1}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="同一条鱼只出1只填写[100]" prompt="如果填写1只以上，总几率也必须为100，例如[50,50]" sqref="T3" xr:uid="{9DFD6623-DF6A-41CE-BA46-1B49574938C4}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="可以以范围刷新" prompt="[2,4]代表2~4秒刷新1次_x000a_[2]代表2秒刷新1次" sqref="S3" xr:uid="{B007E43F-357E-46BD-87B3-34B11E2D91CA}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="默认[],[x偏移,y偏移,自身缩放]" sqref="Q3" xr:uid="{B8D3D090-E937-4F62-B0C1-1CA9CF5026DF}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="数组第1个元素必须为动画第1帧" prompt="逗号之后填写整个移动动画的总帧数_x000a_[&quot;第一帧名称&quot;, 总帧数]" sqref="O3:P3" xr:uid="{659AF653-2BE7-45FC-8B7C-640E6AB4A6E8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="填写0.8即变为原体型的0.8倍大小" prompt="." sqref="R3" xr:uid="{0F9AE229-82A8-40AF-8496-2A1354A74550}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0无需调整，1实时调整朝向" prompt="." sqref="M3" xr:uid="{FDCE5844-E5BC-4E83-B5B1-289079EAF86B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="1普通，2技能，3boss，4奖金鱼，5宝箱鱼，6话费鱼" prompt="1普通，2技能，3boss，4奖金鱼，5宝箱鱼，6话费鱼" sqref="J3" xr:uid="{4F6BE916-36F6-468A-B4D9-582C76015F6A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="捕获到大鱼，金币获得界面显示鱼名称" prompt="." sqref="K3" xr:uid="{184BD1DB-83B6-4B42-AA9B-E5F89B79C438}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0不翻转，1左右 2上下" prompt="." sqref="L3" xr:uid="{D1B4B408-F8FA-4F62-B904-86F84E77DDCC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0代表鱼阵，用鱼阵配置" prompt="." sqref="I3" xr:uid="{D65FC92C-8E21-4CC3-AA77-C33CFC721466}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="只有一个技能的填写[100]" prompt="如果填写1个以上，填写[50,50]" sqref="V3:W3" xr:uid="{F75ADBC7-9D91-4A43-AC57-30FBA2478D9A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="初始血量默认为1，不能填写0" prompt="." sqref="X3" xr:uid="{0DEE9133-18C1-417F-B5F1-D0DB523C72B6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0小_x000a_1中_x000a_2大_x000a_3超大" sqref="E3" xr:uid="{6AD84825-4A45-4019-B1DF-3F3AA23E2AE8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0小&#10;1中&#10;2大&#10;3超大" sqref="E3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="初始血量默认为1，不能填写0" prompt="." sqref="X3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="只有一个技能的填写[100]" prompt="如果填写1个以上，填写[50,50]" sqref="V3:W3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0代表鱼阵，用鱼阵配置" prompt="." sqref="I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0不翻转，1左右 2上下" prompt="." sqref="L3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="捕获到大鱼，金币获得界面显示鱼名称" prompt="." sqref="K3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="1普通，2技能，3boss，4奖金鱼，5宝箱鱼，6话费鱼" prompt="1普通，2技能，3boss，4奖金鱼，5宝箱鱼，6话费鱼" sqref="J3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0无需调整，1实时调整朝向" prompt="." sqref="M3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="数组第1个元素必须为动画第1帧" prompt="逗号之后填写整个移动动画的总帧数&#10;[&quot;第一帧名称&quot;, 总帧数]" sqref="O3:P3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="默认[],[x偏移,y偏移,自身缩放]" sqref="Q3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="填写0.8即变为原体型的0.8倍大小" prompt="." sqref="R3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="可以以范围刷新" prompt="[2,4]代表2~4秒刷新1次&#10;[2]代表2秒刷新1次" sqref="S3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="同一条鱼只出1只填写[100]" prompt="如果填写1只以上，总几率也必须为100，例如[50,50]" sqref="T3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scene表配置ID" prompt="." sqref="U3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="可填写为随机数字，填写随机数字时候要使用数组形式" prompt="[100,200]，意思为100~200之间。当使用随机数字时，应配合特殊动画。" sqref="Y3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="每秒位移的像素数量" prompt="." sqref="AA3:AB3"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>